--- a/static/documentos/reporte_19.xlsx
+++ b/static/documentos/reporte_19.xlsx
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">REPORTE!$A$1:$P$39</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -733,9 +733,6 @@
   </si>
   <si>
     <t>Numero de lote de pago</t>
-  </si>
-  <si>
-    <t>Código SICAN:</t>
   </si>
   <si>
     <t>CARGAR A LA CUENTA:</t>
@@ -777,6 +774,9 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
+  </si>
+  <si>
+    <t>Código SION:</t>
   </si>
 </sst>
 </file>
@@ -1827,210 +1827,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2044,15 +1840,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2066,32 +1853,11 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2103,14 +1869,248 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2150,7 +2150,7 @@
         <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2454,7 +2454,7 @@
   <dimension ref="B1:P39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C10" sqref="C10:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2478,219 +2478,219 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="24" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="83"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="93" t="s">
+      <c r="B1" s="102"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="95"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="113"/>
+      <c r="P1" s="114"/>
     </row>
     <row r="2" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="86"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="96" t="s">
+      <c r="B2" s="105"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="115" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="98"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="116"/>
+      <c r="P2" s="117"/>
     </row>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="86"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="88"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="107"/>
     </row>
     <row r="4" spans="2:16" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B4" s="86"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
       <c r="E4" s="29" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="33"/>
-      <c r="G4" s="91" t="s">
+      <c r="G4" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="91"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="91" t="s">
+      <c r="H4" s="110"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
+      <c r="L4" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="91"/>
-      <c r="N4" s="91"/>
-      <c r="O4" s="99"/>
-      <c r="P4" s="100"/>
+      <c r="M4" s="110"/>
+      <c r="N4" s="110"/>
+      <c r="O4" s="118"/>
+      <c r="P4" s="119"/>
     </row>
     <row r="5" spans="2:16" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B5" s="86"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
       <c r="E5" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="105"/>
-      <c r="I5" s="105"/>
-      <c r="J5" s="105"/>
-      <c r="K5" s="105"/>
-      <c r="L5" s="106" t="s">
+      <c r="F5" s="124"/>
+      <c r="G5" s="124"/>
+      <c r="H5" s="124"/>
+      <c r="I5" s="124"/>
+      <c r="J5" s="124"/>
+      <c r="K5" s="124"/>
+      <c r="L5" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="106"/>
-      <c r="N5" s="106"/>
-      <c r="O5" s="101"/>
-      <c r="P5" s="102"/>
+      <c r="M5" s="125"/>
+      <c r="N5" s="125"/>
+      <c r="O5" s="120"/>
+      <c r="P5" s="121"/>
     </row>
     <row r="6" spans="2:16" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="B6" s="86"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
       <c r="E6" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="101"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="104"/>
-      <c r="J6" s="117" t="s">
-        <v>235</v>
-      </c>
-      <c r="K6" s="118"/>
-      <c r="L6" s="118"/>
-      <c r="M6" s="118"/>
-      <c r="N6" s="118"/>
-      <c r="O6" s="118"/>
-      <c r="P6" s="119"/>
+      <c r="F6" s="120"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="132" t="s">
+        <v>234</v>
+      </c>
+      <c r="K6" s="133"/>
+      <c r="L6" s="133"/>
+      <c r="M6" s="133"/>
+      <c r="N6" s="133"/>
+      <c r="O6" s="133"/>
+      <c r="P6" s="134"/>
     </row>
     <row r="7" spans="2:16" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B7" s="86"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
       <c r="E7" s="31" t="s">
-        <v>234</v>
-      </c>
-      <c r="F7" s="101"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="120" t="s">
+        <v>241</v>
+      </c>
+      <c r="F7" s="120"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="123"/>
+      <c r="J7" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="121"/>
-      <c r="L7" s="121"/>
-      <c r="M7" s="121"/>
-      <c r="N7" s="121"/>
-      <c r="O7" s="121"/>
-      <c r="P7" s="122"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="86"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="86"/>
+      <c r="O7" s="86"/>
+      <c r="P7" s="87"/>
     </row>
     <row r="8" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="89"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="107" t="s">
+      <c r="B8" s="108"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="126" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="108"/>
+      <c r="F8" s="127"/>
       <c r="G8" s="34"/>
-      <c r="H8" s="109" t="s">
+      <c r="H8" s="128" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="110"/>
+      <c r="I8" s="129"/>
       <c r="J8" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="60"/>
-      <c r="L8" s="111"/>
-      <c r="M8" s="58" t="s">
+      <c r="K8" s="130"/>
+      <c r="L8" s="131"/>
+      <c r="M8" s="141" t="s">
         <v>27</v>
       </c>
-      <c r="N8" s="59"/>
-      <c r="O8" s="60"/>
-      <c r="P8" s="61"/>
+      <c r="N8" s="142"/>
+      <c r="O8" s="130"/>
+      <c r="P8" s="143"/>
     </row>
     <row r="9" spans="2:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="112" t="s">
+      <c r="B10" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="75" t="s">
+      <c r="C10" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="75" t="s">
+      <c r="D10" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="75" t="s">
+      <c r="E10" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75" t="s">
+      <c r="F10" s="100"/>
+      <c r="G10" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="75" t="s">
+      <c r="H10" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="81" t="s">
+      <c r="I10" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="75" t="s">
+      <c r="J10" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="75"/>
-      <c r="L10" s="77" t="s">
+      <c r="K10" s="100"/>
+      <c r="L10" s="138" t="s">
         <v>183</v>
       </c>
-      <c r="M10" s="68" t="s">
+      <c r="M10" s="152" t="s">
         <v>10</v>
       </c>
-      <c r="N10" s="69"/>
-      <c r="O10" s="62" t="s">
+      <c r="N10" s="153"/>
+      <c r="O10" s="146" t="s">
         <v>8</v>
       </c>
-      <c r="P10" s="63"/>
+      <c r="P10" s="147"/>
     </row>
     <row r="11" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="113"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="76"/>
-      <c r="L11" s="78"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="136"/>
+      <c r="J11" s="101"/>
+      <c r="K11" s="101"/>
+      <c r="L11" s="139"/>
       <c r="M11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="N11" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="O11" s="64"/>
-      <c r="P11" s="65"/>
+      <c r="O11" s="148"/>
+      <c r="P11" s="149"/>
     </row>
     <row r="12" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="35">
@@ -2698,18 +2698,18 @@
       </c>
       <c r="C12" s="38"/>
       <c r="D12" s="39"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
+      <c r="E12" s="137"/>
+      <c r="F12" s="137"/>
       <c r="G12" s="39"/>
       <c r="H12" s="38"/>
       <c r="I12" s="40"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
+      <c r="J12" s="140"/>
+      <c r="K12" s="140"/>
       <c r="L12" s="41"/>
       <c r="M12" s="42"/>
       <c r="N12" s="43"/>
-      <c r="O12" s="66"/>
-      <c r="P12" s="67"/>
+      <c r="O12" s="150"/>
+      <c r="P12" s="151"/>
     </row>
     <row r="13" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="36">
@@ -2717,18 +2717,18 @@
       </c>
       <c r="C13" s="39"/>
       <c r="D13" s="39"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
       <c r="I13" s="44"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="79"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="92"/>
       <c r="L13" s="41"/>
       <c r="M13" s="45"/>
       <c r="N13" s="46"/>
-      <c r="O13" s="55"/>
-      <c r="P13" s="56"/>
+      <c r="O13" s="83"/>
+      <c r="P13" s="84"/>
     </row>
     <row r="14" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="36">
@@ -2736,18 +2736,18 @@
       </c>
       <c r="C14" s="39"/>
       <c r="D14" s="39"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="80"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
       <c r="G14" s="39"/>
       <c r="H14" s="39"/>
       <c r="I14" s="44"/>
-      <c r="J14" s="79"/>
-      <c r="K14" s="79"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="92"/>
       <c r="L14" s="41"/>
       <c r="M14" s="45"/>
       <c r="N14" s="46"/>
-      <c r="O14" s="55"/>
-      <c r="P14" s="56"/>
+      <c r="O14" s="83"/>
+      <c r="P14" s="84"/>
     </row>
     <row r="15" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="36">
@@ -2755,18 +2755,18 @@
       </c>
       <c r="C15" s="39"/>
       <c r="D15" s="39"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="91"/>
       <c r="G15" s="39"/>
       <c r="H15" s="39"/>
       <c r="I15" s="44"/>
-      <c r="J15" s="79"/>
-      <c r="K15" s="79"/>
+      <c r="J15" s="92"/>
+      <c r="K15" s="92"/>
       <c r="L15" s="41"/>
       <c r="M15" s="45"/>
       <c r="N15" s="46"/>
-      <c r="O15" s="55"/>
-      <c r="P15" s="56"/>
+      <c r="O15" s="83"/>
+      <c r="P15" s="84"/>
     </row>
     <row r="16" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="36">
@@ -2774,18 +2774,18 @@
       </c>
       <c r="C16" s="39"/>
       <c r="D16" s="39"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="91"/>
       <c r="G16" s="39"/>
       <c r="H16" s="39"/>
       <c r="I16" s="44"/>
-      <c r="J16" s="79"/>
-      <c r="K16" s="79"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="92"/>
       <c r="L16" s="41"/>
       <c r="M16" s="45"/>
       <c r="N16" s="46"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="56"/>
+      <c r="O16" s="83"/>
+      <c r="P16" s="84"/>
     </row>
     <row r="17" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="36">
@@ -2793,18 +2793,18 @@
       </c>
       <c r="C17" s="39"/>
       <c r="D17" s="39"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="80"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="91"/>
       <c r="G17" s="39"/>
       <c r="H17" s="39"/>
       <c r="I17" s="44"/>
-      <c r="J17" s="79"/>
-      <c r="K17" s="79"/>
+      <c r="J17" s="92"/>
+      <c r="K17" s="92"/>
       <c r="L17" s="41"/>
       <c r="M17" s="45"/>
       <c r="N17" s="46"/>
-      <c r="O17" s="55"/>
-      <c r="P17" s="56"/>
+      <c r="O17" s="83"/>
+      <c r="P17" s="84"/>
     </row>
     <row r="18" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="36">
@@ -2812,18 +2812,18 @@
       </c>
       <c r="C18" s="39"/>
       <c r="D18" s="39"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="80"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="91"/>
       <c r="G18" s="39"/>
       <c r="H18" s="39"/>
       <c r="I18" s="44"/>
-      <c r="J18" s="79"/>
-      <c r="K18" s="79"/>
+      <c r="J18" s="92"/>
+      <c r="K18" s="92"/>
       <c r="L18" s="41"/>
       <c r="M18" s="45"/>
       <c r="N18" s="46"/>
-      <c r="O18" s="55"/>
-      <c r="P18" s="56"/>
+      <c r="O18" s="83"/>
+      <c r="P18" s="84"/>
     </row>
     <row r="19" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="36">
@@ -2831,18 +2831,18 @@
       </c>
       <c r="C19" s="39"/>
       <c r="D19" s="39"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="80"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="91"/>
       <c r="G19" s="39"/>
       <c r="H19" s="39"/>
       <c r="I19" s="44"/>
-      <c r="J19" s="79"/>
-      <c r="K19" s="79"/>
+      <c r="J19" s="92"/>
+      <c r="K19" s="92"/>
       <c r="L19" s="41"/>
       <c r="M19" s="45"/>
       <c r="N19" s="46"/>
-      <c r="O19" s="55"/>
-      <c r="P19" s="56"/>
+      <c r="O19" s="83"/>
+      <c r="P19" s="84"/>
     </row>
     <row r="20" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="36">
@@ -2850,18 +2850,18 @@
       </c>
       <c r="C20" s="39"/>
       <c r="D20" s="39"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="80"/>
+      <c r="E20" s="91"/>
+      <c r="F20" s="91"/>
       <c r="G20" s="39"/>
       <c r="H20" s="39"/>
       <c r="I20" s="44"/>
-      <c r="J20" s="79"/>
-      <c r="K20" s="79"/>
+      <c r="J20" s="92"/>
+      <c r="K20" s="92"/>
       <c r="L20" s="41"/>
       <c r="M20" s="45"/>
       <c r="N20" s="46"/>
-      <c r="O20" s="55"/>
-      <c r="P20" s="56"/>
+      <c r="O20" s="83"/>
+      <c r="P20" s="84"/>
     </row>
     <row r="21" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="36">
@@ -2869,18 +2869,18 @@
       </c>
       <c r="C21" s="39"/>
       <c r="D21" s="39"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="80"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="91"/>
       <c r="G21" s="39"/>
       <c r="H21" s="39"/>
       <c r="I21" s="44"/>
-      <c r="J21" s="79"/>
-      <c r="K21" s="79"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="92"/>
       <c r="L21" s="41"/>
       <c r="M21" s="45"/>
       <c r="N21" s="46"/>
-      <c r="O21" s="55"/>
-      <c r="P21" s="56"/>
+      <c r="O21" s="83"/>
+      <c r="P21" s="84"/>
     </row>
     <row r="22" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="36">
@@ -2888,18 +2888,18 @@
       </c>
       <c r="C22" s="39"/>
       <c r="D22" s="39"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="80"/>
+      <c r="E22" s="91"/>
+      <c r="F22" s="91"/>
       <c r="G22" s="39"/>
       <c r="H22" s="39"/>
       <c r="I22" s="44"/>
-      <c r="J22" s="79"/>
-      <c r="K22" s="79"/>
+      <c r="J22" s="92"/>
+      <c r="K22" s="92"/>
       <c r="L22" s="41"/>
       <c r="M22" s="45"/>
       <c r="N22" s="46"/>
-      <c r="O22" s="55"/>
-      <c r="P22" s="56"/>
+      <c r="O22" s="83"/>
+      <c r="P22" s="84"/>
     </row>
     <row r="23" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="36">
@@ -2907,18 +2907,18 @@
       </c>
       <c r="C23" s="39"/>
       <c r="D23" s="39"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
+      <c r="E23" s="91"/>
+      <c r="F23" s="91"/>
       <c r="G23" s="39"/>
       <c r="H23" s="39"/>
       <c r="I23" s="44"/>
-      <c r="J23" s="79"/>
-      <c r="K23" s="79"/>
+      <c r="J23" s="92"/>
+      <c r="K23" s="92"/>
       <c r="L23" s="41"/>
       <c r="M23" s="45"/>
       <c r="N23" s="46"/>
-      <c r="O23" s="55"/>
-      <c r="P23" s="56"/>
+      <c r="O23" s="83"/>
+      <c r="P23" s="84"/>
     </row>
     <row r="24" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="36">
@@ -2926,18 +2926,18 @@
       </c>
       <c r="C24" s="39"/>
       <c r="D24" s="39"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="80"/>
+      <c r="E24" s="91"/>
+      <c r="F24" s="91"/>
       <c r="G24" s="39"/>
       <c r="H24" s="39"/>
       <c r="I24" s="44"/>
-      <c r="J24" s="79"/>
-      <c r="K24" s="79"/>
+      <c r="J24" s="92"/>
+      <c r="K24" s="92"/>
       <c r="L24" s="41"/>
       <c r="M24" s="45"/>
       <c r="N24" s="46"/>
-      <c r="O24" s="55"/>
-      <c r="P24" s="56"/>
+      <c r="O24" s="83"/>
+      <c r="P24" s="84"/>
     </row>
     <row r="25" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="36">
@@ -2945,18 +2945,18 @@
       </c>
       <c r="C25" s="39"/>
       <c r="D25" s="39"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="80"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="91"/>
       <c r="G25" s="39"/>
       <c r="H25" s="39"/>
       <c r="I25" s="44"/>
-      <c r="J25" s="79"/>
-      <c r="K25" s="79"/>
+      <c r="J25" s="92"/>
+      <c r="K25" s="92"/>
       <c r="L25" s="41"/>
       <c r="M25" s="45"/>
       <c r="N25" s="46"/>
-      <c r="O25" s="55"/>
-      <c r="P25" s="56"/>
+      <c r="O25" s="83"/>
+      <c r="P25" s="84"/>
     </row>
     <row r="26" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="36">
@@ -2964,18 +2964,18 @@
       </c>
       <c r="C26" s="39"/>
       <c r="D26" s="39"/>
-      <c r="E26" s="80"/>
-      <c r="F26" s="80"/>
+      <c r="E26" s="91"/>
+      <c r="F26" s="91"/>
       <c r="G26" s="39"/>
       <c r="H26" s="39"/>
       <c r="I26" s="44"/>
-      <c r="J26" s="79"/>
-      <c r="K26" s="79"/>
+      <c r="J26" s="92"/>
+      <c r="K26" s="92"/>
       <c r="L26" s="41"/>
       <c r="M26" s="45"/>
       <c r="N26" s="46"/>
-      <c r="O26" s="55"/>
-      <c r="P26" s="56"/>
+      <c r="O26" s="83"/>
+      <c r="P26" s="84"/>
     </row>
     <row r="27" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="36">
@@ -2983,18 +2983,18 @@
       </c>
       <c r="C27" s="39"/>
       <c r="D27" s="39"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="80"/>
+      <c r="E27" s="91"/>
+      <c r="F27" s="91"/>
       <c r="G27" s="39"/>
       <c r="H27" s="39"/>
       <c r="I27" s="44"/>
-      <c r="J27" s="79"/>
-      <c r="K27" s="79"/>
+      <c r="J27" s="92"/>
+      <c r="K27" s="92"/>
       <c r="L27" s="47"/>
       <c r="M27" s="45"/>
       <c r="N27" s="46"/>
-      <c r="O27" s="55"/>
-      <c r="P27" s="56"/>
+      <c r="O27" s="83"/>
+      <c r="P27" s="84"/>
     </row>
     <row r="28" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="36">
@@ -3002,18 +3002,18 @@
       </c>
       <c r="C28" s="39"/>
       <c r="D28" s="39"/>
-      <c r="E28" s="80"/>
-      <c r="F28" s="80"/>
+      <c r="E28" s="91"/>
+      <c r="F28" s="91"/>
       <c r="G28" s="39"/>
       <c r="H28" s="39"/>
       <c r="I28" s="44"/>
-      <c r="J28" s="79"/>
-      <c r="K28" s="79"/>
+      <c r="J28" s="92"/>
+      <c r="K28" s="92"/>
       <c r="L28" s="47"/>
       <c r="M28" s="45"/>
       <c r="N28" s="46"/>
-      <c r="O28" s="55"/>
-      <c r="P28" s="56"/>
+      <c r="O28" s="83"/>
+      <c r="P28" s="84"/>
     </row>
     <row r="29" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="36">
@@ -3021,18 +3021,18 @@
       </c>
       <c r="C29" s="39"/>
       <c r="D29" s="39"/>
-      <c r="E29" s="80"/>
-      <c r="F29" s="80"/>
+      <c r="E29" s="91"/>
+      <c r="F29" s="91"/>
       <c r="G29" s="39"/>
       <c r="H29" s="39"/>
       <c r="I29" s="44"/>
-      <c r="J29" s="79"/>
-      <c r="K29" s="79"/>
+      <c r="J29" s="92"/>
+      <c r="K29" s="92"/>
       <c r="L29" s="47"/>
       <c r="M29" s="48"/>
       <c r="N29" s="49"/>
-      <c r="O29" s="55"/>
-      <c r="P29" s="56"/>
+      <c r="O29" s="83"/>
+      <c r="P29" s="84"/>
     </row>
     <row r="30" spans="2:16" ht="129.94999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="37">
@@ -3040,26 +3040,26 @@
       </c>
       <c r="C30" s="53"/>
       <c r="D30" s="53"/>
-      <c r="E30" s="115"/>
-      <c r="F30" s="115"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="93"/>
       <c r="G30" s="53"/>
       <c r="H30" s="53"/>
       <c r="I30" s="54"/>
-      <c r="J30" s="116"/>
-      <c r="K30" s="116"/>
+      <c r="J30" s="94"/>
+      <c r="K30" s="94"/>
       <c r="L30" s="50"/>
       <c r="M30" s="51"/>
       <c r="N30" s="52"/>
-      <c r="O30" s="72"/>
-      <c r="P30" s="73"/>
+      <c r="O30" s="156"/>
+      <c r="P30" s="157"/>
     </row>
     <row r="31" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H31" s="70" t="s">
+      <c r="H31" s="154" t="s">
         <v>22</v>
       </c>
-      <c r="I31" s="71"/>
-      <c r="J31" s="71"/>
-      <c r="K31" s="71"/>
+      <c r="I31" s="155"/>
+      <c r="J31" s="155"/>
+      <c r="K31" s="155"/>
       <c r="L31" s="26">
         <f>SUM(L12:L30)</f>
         <v>0</v>
@@ -3073,13 +3073,13 @@
       <c r="L32" s="4"/>
     </row>
     <row r="33" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="114" t="s">
+      <c r="B33" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="114"/>
-      <c r="D33" s="114"/>
-      <c r="E33" s="114"/>
-      <c r="F33" s="114"/>
+      <c r="C33" s="90"/>
+      <c r="D33" s="90"/>
+      <c r="E33" s="90"/>
+      <c r="F33" s="90"/>
       <c r="H33" s="28"/>
       <c r="I33" s="28"/>
       <c r="J33" s="28"/>
@@ -3087,126 +3087,126 @@
       <c r="L33" s="4"/>
     </row>
     <row r="34" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="123" t="s">
+      <c r="B34" s="55" t="s">
+        <v>235</v>
+      </c>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="57" t="s">
+        <v>235</v>
+      </c>
+      <c r="G34" s="58"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="57" t="s">
+        <v>235</v>
+      </c>
+      <c r="J34" s="60"/>
+      <c r="K34" s="60"/>
+      <c r="L34" s="61"/>
+      <c r="M34" s="79" t="s">
+        <v>233</v>
+      </c>
+      <c r="N34" s="80"/>
+      <c r="O34" s="80"/>
+      <c r="P34" s="144" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" ht="21" x14ac:dyDescent="0.35">
+      <c r="B35" s="62"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="65"/>
+      <c r="I35" s="66"/>
+      <c r="J35" s="67"/>
+      <c r="K35" s="67"/>
+      <c r="L35" s="68"/>
+      <c r="M35" s="81"/>
+      <c r="N35" s="82"/>
+      <c r="O35" s="82"/>
+      <c r="P35" s="145"/>
+    </row>
+    <row r="36" spans="2:16" ht="21" x14ac:dyDescent="0.35">
+      <c r="B36" s="62"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="64"/>
+      <c r="H36" s="65"/>
+      <c r="I36" s="66"/>
+      <c r="J36" s="67"/>
+      <c r="K36" s="67"/>
+      <c r="L36" s="68"/>
+      <c r="M36" s="81"/>
+      <c r="N36" s="82"/>
+      <c r="O36" s="82"/>
+      <c r="P36" s="145"/>
+    </row>
+    <row r="37" spans="2:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="62"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="64"/>
+      <c r="H37" s="69"/>
+      <c r="I37" s="70"/>
+      <c r="J37" s="67"/>
+      <c r="K37" s="67"/>
+      <c r="L37" s="68"/>
+      <c r="M37" s="81" t="s">
         <v>236</v>
       </c>
-      <c r="C34" s="124"/>
-      <c r="D34" s="124"/>
-      <c r="E34" s="124"/>
-      <c r="F34" s="125" t="s">
-        <v>236</v>
-      </c>
-      <c r="G34" s="126"/>
-      <c r="H34" s="127"/>
-      <c r="I34" s="125" t="s">
-        <v>236</v>
-      </c>
-      <c r="J34" s="128"/>
-      <c r="K34" s="128"/>
-      <c r="L34" s="129"/>
-      <c r="M34" s="130" t="s">
-        <v>233</v>
-      </c>
-      <c r="N34" s="131"/>
-      <c r="O34" s="131"/>
-      <c r="P34" s="132" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="35" spans="2:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="B35" s="133"/>
-      <c r="C35" s="134"/>
-      <c r="D35" s="134"/>
-      <c r="E35" s="134"/>
-      <c r="F35" s="133"/>
-      <c r="G35" s="135"/>
-      <c r="H35" s="136"/>
-      <c r="I35" s="137"/>
-      <c r="J35" s="138"/>
-      <c r="K35" s="138"/>
-      <c r="L35" s="139"/>
-      <c r="M35" s="140"/>
-      <c r="N35" s="141"/>
-      <c r="O35" s="141"/>
-      <c r="P35" s="142"/>
-    </row>
-    <row r="36" spans="2:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="B36" s="133"/>
-      <c r="C36" s="134"/>
-      <c r="D36" s="134"/>
-      <c r="E36" s="134"/>
-      <c r="F36" s="133"/>
-      <c r="G36" s="135"/>
-      <c r="H36" s="136"/>
-      <c r="I36" s="137"/>
-      <c r="J36" s="138"/>
-      <c r="K36" s="138"/>
-      <c r="L36" s="139"/>
-      <c r="M36" s="140"/>
-      <c r="N36" s="141"/>
-      <c r="O36" s="141"/>
-      <c r="P36" s="142"/>
-    </row>
-    <row r="37" spans="2:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="133"/>
-      <c r="C37" s="134"/>
-      <c r="D37" s="134"/>
-      <c r="E37" s="134"/>
-      <c r="F37" s="133"/>
-      <c r="G37" s="135"/>
-      <c r="H37" s="143"/>
-      <c r="I37" s="144"/>
-      <c r="J37" s="138"/>
-      <c r="K37" s="138"/>
-      <c r="L37" s="139"/>
-      <c r="M37" s="140" t="s">
+      <c r="N37" s="82"/>
+      <c r="O37" s="82"/>
+      <c r="P37" s="77" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" ht="21" x14ac:dyDescent="0.35">
+      <c r="B38" s="95" t="s">
         <v>237</v>
       </c>
-      <c r="N37" s="141"/>
-      <c r="O37" s="141"/>
-      <c r="P37" s="145" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="2:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="B38" s="146" t="s">
+      <c r="C38" s="96"/>
+      <c r="D38" s="96"/>
+      <c r="E38" s="97"/>
+      <c r="F38" s="95" t="s">
         <v>238</v>
       </c>
-      <c r="C38" s="147"/>
-      <c r="D38" s="147"/>
-      <c r="E38" s="148"/>
-      <c r="F38" s="146" t="s">
+      <c r="G38" s="96"/>
+      <c r="H38" s="96"/>
+      <c r="I38" s="95" t="s">
         <v>239</v>
       </c>
-      <c r="G38" s="147"/>
-      <c r="H38" s="147"/>
-      <c r="I38" s="146" t="s">
-        <v>240</v>
-      </c>
-      <c r="J38" s="147"/>
-      <c r="K38" s="147"/>
-      <c r="L38" s="148"/>
-      <c r="M38" s="140"/>
-      <c r="N38" s="141"/>
-      <c r="O38" s="141"/>
-      <c r="P38" s="145"/>
+      <c r="J38" s="96"/>
+      <c r="K38" s="96"/>
+      <c r="L38" s="97"/>
+      <c r="M38" s="81"/>
+      <c r="N38" s="82"/>
+      <c r="O38" s="82"/>
+      <c r="P38" s="77"/>
     </row>
     <row r="39" spans="2:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="149"/>
-      <c r="C39" s="150"/>
-      <c r="D39" s="150"/>
-      <c r="E39" s="150"/>
-      <c r="F39" s="151"/>
-      <c r="G39" s="152"/>
-      <c r="H39" s="152"/>
-      <c r="I39" s="151"/>
-      <c r="J39" s="153"/>
-      <c r="K39" s="153"/>
-      <c r="L39" s="154"/>
-      <c r="M39" s="155"/>
-      <c r="N39" s="156"/>
-      <c r="O39" s="156"/>
-      <c r="P39" s="157"/>
+      <c r="B39" s="71"/>
+      <c r="C39" s="72"/>
+      <c r="D39" s="72"/>
+      <c r="E39" s="72"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="74"/>
+      <c r="H39" s="74"/>
+      <c r="I39" s="73"/>
+      <c r="J39" s="75"/>
+      <c r="K39" s="75"/>
+      <c r="L39" s="76"/>
+      <c r="M39" s="88"/>
+      <c r="N39" s="89"/>
+      <c r="O39" s="89"/>
+      <c r="P39" s="78"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" selectUnlockedCells="1"/>
@@ -3217,43 +3217,38 @@
     <protectedRange sqref="J7:O7" name="Rango1_1"/>
   </protectedRanges>
   <mergeCells count="96">
-    <mergeCell ref="P37:P39"/>
-    <mergeCell ref="M34:O36"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="M37:O39"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="P34:P36"/>
+    <mergeCell ref="O10:P11"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="J6:P6"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="E17:F17"/>
     <mergeCell ref="J25:K25"/>
     <mergeCell ref="B1:D8"/>
     <mergeCell ref="G4:H4"/>
@@ -3270,49 +3265,54 @@
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="K8:L8"/>
-    <mergeCell ref="J6:P6"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
     <mergeCell ref="J17:K17"/>
-    <mergeCell ref="E21:F21"/>
     <mergeCell ref="J21:K21"/>
-    <mergeCell ref="E18:F18"/>
     <mergeCell ref="J18:K18"/>
-    <mergeCell ref="E19:F19"/>
     <mergeCell ref="O15:P15"/>
-    <mergeCell ref="E12:F12"/>
     <mergeCell ref="J10:K11"/>
     <mergeCell ref="L10:L11"/>
     <mergeCell ref="J20:K20"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="P34:P36"/>
-    <mergeCell ref="O10:P11"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="P37:P39"/>
+    <mergeCell ref="M34:O36"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="M37:O39"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:K4">

--- a/static/documentos/reporte_19.xlsx
+++ b/static/documentos/reporte_19.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="241">
   <si>
     <t>Id.</t>
   </si>
@@ -745,12 +745,6 @@
   </si>
   <si>
     <t>Autorización del gasto</t>
-  </si>
-  <si>
-    <t>Generador del gasto</t>
-  </si>
-  <si>
-    <t>Contador</t>
   </si>
   <si>
     <r>
@@ -777,6 +771,9 @@
   </si>
   <si>
     <t>Código SION:</t>
+  </si>
+  <si>
+    <t>Coordinador administrativo</t>
   </si>
 </sst>
 </file>
@@ -1869,6 +1866,225 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1887,230 +2103,11 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2150,7 +2147,7 @@
         <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2478,219 +2475,219 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="24" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="102"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="112" t="s">
+      <c r="B1" s="110"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="113"/>
-      <c r="P1" s="114"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="121"/>
+      <c r="P1" s="122"/>
     </row>
     <row r="2" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="105"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="115" t="s">
+      <c r="B2" s="113"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="116"/>
-      <c r="P2" s="117"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="124"/>
+      <c r="O2" s="124"/>
+      <c r="P2" s="125"/>
     </row>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="105"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="107"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="115"/>
     </row>
     <row r="4" spans="2:16" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B4" s="105"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
       <c r="E4" s="29" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="33"/>
-      <c r="G4" s="110" t="s">
+      <c r="G4" s="118" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="110"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="111"/>
-      <c r="L4" s="110" t="s">
+      <c r="H4" s="118"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="119"/>
+      <c r="L4" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="110"/>
-      <c r="N4" s="110"/>
-      <c r="O4" s="118"/>
-      <c r="P4" s="119"/>
+      <c r="M4" s="118"/>
+      <c r="N4" s="118"/>
+      <c r="O4" s="126"/>
+      <c r="P4" s="127"/>
     </row>
     <row r="5" spans="2:16" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B5" s="105"/>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
+      <c r="B5" s="113"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
       <c r="E5" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="124"/>
-      <c r="G5" s="124"/>
-      <c r="H5" s="124"/>
-      <c r="I5" s="124"/>
-      <c r="J5" s="124"/>
-      <c r="K5" s="124"/>
-      <c r="L5" s="125" t="s">
+      <c r="F5" s="132"/>
+      <c r="G5" s="132"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="132"/>
+      <c r="J5" s="132"/>
+      <c r="K5" s="132"/>
+      <c r="L5" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="125"/>
-      <c r="N5" s="125"/>
-      <c r="O5" s="120"/>
-      <c r="P5" s="121"/>
+      <c r="M5" s="133"/>
+      <c r="N5" s="133"/>
+      <c r="O5" s="128"/>
+      <c r="P5" s="129"/>
     </row>
     <row r="6" spans="2:16" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="B6" s="105"/>
-      <c r="C6" s="106"/>
-      <c r="D6" s="106"/>
+      <c r="B6" s="113"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="114"/>
       <c r="E6" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="120"/>
-      <c r="G6" s="122"/>
-      <c r="H6" s="122"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="132" t="s">
+      <c r="F6" s="128"/>
+      <c r="G6" s="130"/>
+      <c r="H6" s="130"/>
+      <c r="I6" s="131"/>
+      <c r="J6" s="101" t="s">
         <v>234</v>
       </c>
-      <c r="K6" s="133"/>
-      <c r="L6" s="133"/>
-      <c r="M6" s="133"/>
-      <c r="N6" s="133"/>
-      <c r="O6" s="133"/>
-      <c r="P6" s="134"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
+      <c r="N6" s="102"/>
+      <c r="O6" s="102"/>
+      <c r="P6" s="103"/>
     </row>
     <row r="7" spans="2:16" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B7" s="105"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="106"/>
+      <c r="B7" s="113"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
       <c r="E7" s="31" t="s">
-        <v>241</v>
-      </c>
-      <c r="F7" s="120"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="123"/>
-      <c r="J7" s="85" t="s">
+        <v>239</v>
+      </c>
+      <c r="F7" s="128"/>
+      <c r="G7" s="130"/>
+      <c r="H7" s="130"/>
+      <c r="I7" s="131"/>
+      <c r="J7" s="145" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="86"/>
-      <c r="L7" s="86"/>
-      <c r="M7" s="86"/>
-      <c r="N7" s="86"/>
-      <c r="O7" s="86"/>
-      <c r="P7" s="87"/>
+      <c r="K7" s="146"/>
+      <c r="L7" s="146"/>
+      <c r="M7" s="146"/>
+      <c r="N7" s="146"/>
+      <c r="O7" s="146"/>
+      <c r="P7" s="147"/>
     </row>
     <row r="8" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="108"/>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="126" t="s">
+      <c r="B8" s="116"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="134" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="127"/>
+      <c r="F8" s="135"/>
       <c r="G8" s="34"/>
-      <c r="H8" s="128" t="s">
+      <c r="H8" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="129"/>
+      <c r="I8" s="137"/>
       <c r="J8" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="130"/>
-      <c r="L8" s="131"/>
-      <c r="M8" s="141" t="s">
+      <c r="K8" s="85"/>
+      <c r="L8" s="138"/>
+      <c r="M8" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="N8" s="142"/>
-      <c r="O8" s="130"/>
-      <c r="P8" s="143"/>
+      <c r="N8" s="84"/>
+      <c r="O8" s="85"/>
+      <c r="P8" s="86"/>
     </row>
     <row r="9" spans="2:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="98" t="s">
+      <c r="B10" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="100" t="s">
+      <c r="C10" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="100" t="s">
+      <c r="D10" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="100" t="s">
+      <c r="E10" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="100"/>
-      <c r="G10" s="100" t="s">
+      <c r="F10" s="106"/>
+      <c r="G10" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="100" t="s">
+      <c r="H10" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="135" t="s">
+      <c r="I10" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="100" t="s">
+      <c r="J10" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="100"/>
-      <c r="L10" s="138" t="s">
+      <c r="K10" s="106"/>
+      <c r="L10" s="148" t="s">
         <v>183</v>
       </c>
-      <c r="M10" s="152" t="s">
+      <c r="M10" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="N10" s="153"/>
-      <c r="O10" s="146" t="s">
+      <c r="N10" s="96"/>
+      <c r="O10" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="P10" s="147"/>
+      <c r="P10" s="90"/>
     </row>
     <row r="11" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="99"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="136"/>
-      <c r="J11" s="101"/>
-      <c r="K11" s="101"/>
-      <c r="L11" s="139"/>
+      <c r="B11" s="140"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="107"/>
+      <c r="K11" s="107"/>
+      <c r="L11" s="149"/>
       <c r="M11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="N11" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="O11" s="148"/>
-      <c r="P11" s="149"/>
+      <c r="O11" s="91"/>
+      <c r="P11" s="92"/>
     </row>
     <row r="12" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="35">
@@ -2698,18 +2695,18 @@
       </c>
       <c r="C12" s="38"/>
       <c r="D12" s="39"/>
-      <c r="E12" s="137"/>
-      <c r="F12" s="137"/>
+      <c r="E12" s="141"/>
+      <c r="F12" s="141"/>
       <c r="G12" s="39"/>
       <c r="H12" s="38"/>
       <c r="I12" s="40"/>
-      <c r="J12" s="140"/>
-      <c r="K12" s="140"/>
+      <c r="J12" s="82"/>
+      <c r="K12" s="82"/>
       <c r="L12" s="41"/>
       <c r="M12" s="42"/>
       <c r="N12" s="43"/>
-      <c r="O12" s="150"/>
-      <c r="P12" s="151"/>
+      <c r="O12" s="93"/>
+      <c r="P12" s="94"/>
     </row>
     <row r="13" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="36">
@@ -2717,18 +2714,18 @@
       </c>
       <c r="C13" s="39"/>
       <c r="D13" s="39"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="104"/>
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
       <c r="I13" s="44"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="92"/>
+      <c r="J13" s="105"/>
+      <c r="K13" s="105"/>
       <c r="L13" s="41"/>
       <c r="M13" s="45"/>
       <c r="N13" s="46"/>
-      <c r="O13" s="83"/>
-      <c r="P13" s="84"/>
+      <c r="O13" s="80"/>
+      <c r="P13" s="81"/>
     </row>
     <row r="14" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="36">
@@ -2736,18 +2733,18 @@
       </c>
       <c r="C14" s="39"/>
       <c r="D14" s="39"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="91"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="104"/>
       <c r="G14" s="39"/>
       <c r="H14" s="39"/>
       <c r="I14" s="44"/>
-      <c r="J14" s="92"/>
-      <c r="K14" s="92"/>
+      <c r="J14" s="105"/>
+      <c r="K14" s="105"/>
       <c r="L14" s="41"/>
       <c r="M14" s="45"/>
       <c r="N14" s="46"/>
-      <c r="O14" s="83"/>
-      <c r="P14" s="84"/>
+      <c r="O14" s="80"/>
+      <c r="P14" s="81"/>
     </row>
     <row r="15" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="36">
@@ -2755,18 +2752,18 @@
       </c>
       <c r="C15" s="39"/>
       <c r="D15" s="39"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="91"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="104"/>
       <c r="G15" s="39"/>
       <c r="H15" s="39"/>
       <c r="I15" s="44"/>
-      <c r="J15" s="92"/>
-      <c r="K15" s="92"/>
+      <c r="J15" s="105"/>
+      <c r="K15" s="105"/>
       <c r="L15" s="41"/>
       <c r="M15" s="45"/>
       <c r="N15" s="46"/>
-      <c r="O15" s="83"/>
-      <c r="P15" s="84"/>
+      <c r="O15" s="80"/>
+      <c r="P15" s="81"/>
     </row>
     <row r="16" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="36">
@@ -2774,18 +2771,18 @@
       </c>
       <c r="C16" s="39"/>
       <c r="D16" s="39"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="91"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="104"/>
       <c r="G16" s="39"/>
       <c r="H16" s="39"/>
       <c r="I16" s="44"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="92"/>
+      <c r="J16" s="105"/>
+      <c r="K16" s="105"/>
       <c r="L16" s="41"/>
       <c r="M16" s="45"/>
       <c r="N16" s="46"/>
-      <c r="O16" s="83"/>
-      <c r="P16" s="84"/>
+      <c r="O16" s="80"/>
+      <c r="P16" s="81"/>
     </row>
     <row r="17" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="36">
@@ -2793,18 +2790,18 @@
       </c>
       <c r="C17" s="39"/>
       <c r="D17" s="39"/>
-      <c r="E17" s="91"/>
-      <c r="F17" s="91"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="104"/>
       <c r="G17" s="39"/>
       <c r="H17" s="39"/>
       <c r="I17" s="44"/>
-      <c r="J17" s="92"/>
-      <c r="K17" s="92"/>
+      <c r="J17" s="105"/>
+      <c r="K17" s="105"/>
       <c r="L17" s="41"/>
       <c r="M17" s="45"/>
       <c r="N17" s="46"/>
-      <c r="O17" s="83"/>
-      <c r="P17" s="84"/>
+      <c r="O17" s="80"/>
+      <c r="P17" s="81"/>
     </row>
     <row r="18" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="36">
@@ -2812,18 +2809,18 @@
       </c>
       <c r="C18" s="39"/>
       <c r="D18" s="39"/>
-      <c r="E18" s="91"/>
-      <c r="F18" s="91"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="104"/>
       <c r="G18" s="39"/>
       <c r="H18" s="39"/>
       <c r="I18" s="44"/>
-      <c r="J18" s="92"/>
-      <c r="K18" s="92"/>
+      <c r="J18" s="105"/>
+      <c r="K18" s="105"/>
       <c r="L18" s="41"/>
       <c r="M18" s="45"/>
       <c r="N18" s="46"/>
-      <c r="O18" s="83"/>
-      <c r="P18" s="84"/>
+      <c r="O18" s="80"/>
+      <c r="P18" s="81"/>
     </row>
     <row r="19" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="36">
@@ -2831,18 +2828,18 @@
       </c>
       <c r="C19" s="39"/>
       <c r="D19" s="39"/>
-      <c r="E19" s="91"/>
-      <c r="F19" s="91"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="104"/>
       <c r="G19" s="39"/>
       <c r="H19" s="39"/>
       <c r="I19" s="44"/>
-      <c r="J19" s="92"/>
-      <c r="K19" s="92"/>
+      <c r="J19" s="105"/>
+      <c r="K19" s="105"/>
       <c r="L19" s="41"/>
       <c r="M19" s="45"/>
       <c r="N19" s="46"/>
-      <c r="O19" s="83"/>
-      <c r="P19" s="84"/>
+      <c r="O19" s="80"/>
+      <c r="P19" s="81"/>
     </row>
     <row r="20" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="36">
@@ -2850,18 +2847,18 @@
       </c>
       <c r="C20" s="39"/>
       <c r="D20" s="39"/>
-      <c r="E20" s="91"/>
-      <c r="F20" s="91"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
       <c r="G20" s="39"/>
       <c r="H20" s="39"/>
       <c r="I20" s="44"/>
-      <c r="J20" s="92"/>
-      <c r="K20" s="92"/>
+      <c r="J20" s="105"/>
+      <c r="K20" s="105"/>
       <c r="L20" s="41"/>
       <c r="M20" s="45"/>
       <c r="N20" s="46"/>
-      <c r="O20" s="83"/>
-      <c r="P20" s="84"/>
+      <c r="O20" s="80"/>
+      <c r="P20" s="81"/>
     </row>
     <row r="21" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="36">
@@ -2869,18 +2866,18 @@
       </c>
       <c r="C21" s="39"/>
       <c r="D21" s="39"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="104"/>
       <c r="G21" s="39"/>
       <c r="H21" s="39"/>
       <c r="I21" s="44"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="92"/>
+      <c r="J21" s="105"/>
+      <c r="K21" s="105"/>
       <c r="L21" s="41"/>
       <c r="M21" s="45"/>
       <c r="N21" s="46"/>
-      <c r="O21" s="83"/>
-      <c r="P21" s="84"/>
+      <c r="O21" s="80"/>
+      <c r="P21" s="81"/>
     </row>
     <row r="22" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="36">
@@ -2888,18 +2885,18 @@
       </c>
       <c r="C22" s="39"/>
       <c r="D22" s="39"/>
-      <c r="E22" s="91"/>
-      <c r="F22" s="91"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="104"/>
       <c r="G22" s="39"/>
       <c r="H22" s="39"/>
       <c r="I22" s="44"/>
-      <c r="J22" s="92"/>
-      <c r="K22" s="92"/>
+      <c r="J22" s="105"/>
+      <c r="K22" s="105"/>
       <c r="L22" s="41"/>
       <c r="M22" s="45"/>
       <c r="N22" s="46"/>
-      <c r="O22" s="83"/>
-      <c r="P22" s="84"/>
+      <c r="O22" s="80"/>
+      <c r="P22" s="81"/>
     </row>
     <row r="23" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="36">
@@ -2907,18 +2904,18 @@
       </c>
       <c r="C23" s="39"/>
       <c r="D23" s="39"/>
-      <c r="E23" s="91"/>
-      <c r="F23" s="91"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="104"/>
       <c r="G23" s="39"/>
       <c r="H23" s="39"/>
       <c r="I23" s="44"/>
-      <c r="J23" s="92"/>
-      <c r="K23" s="92"/>
+      <c r="J23" s="105"/>
+      <c r="K23" s="105"/>
       <c r="L23" s="41"/>
       <c r="M23" s="45"/>
       <c r="N23" s="46"/>
-      <c r="O23" s="83"/>
-      <c r="P23" s="84"/>
+      <c r="O23" s="80"/>
+      <c r="P23" s="81"/>
     </row>
     <row r="24" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="36">
@@ -2926,18 +2923,18 @@
       </c>
       <c r="C24" s="39"/>
       <c r="D24" s="39"/>
-      <c r="E24" s="91"/>
-      <c r="F24" s="91"/>
+      <c r="E24" s="104"/>
+      <c r="F24" s="104"/>
       <c r="G24" s="39"/>
       <c r="H24" s="39"/>
       <c r="I24" s="44"/>
-      <c r="J24" s="92"/>
-      <c r="K24" s="92"/>
+      <c r="J24" s="105"/>
+      <c r="K24" s="105"/>
       <c r="L24" s="41"/>
       <c r="M24" s="45"/>
       <c r="N24" s="46"/>
-      <c r="O24" s="83"/>
-      <c r="P24" s="84"/>
+      <c r="O24" s="80"/>
+      <c r="P24" s="81"/>
     </row>
     <row r="25" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="36">
@@ -2945,18 +2942,18 @@
       </c>
       <c r="C25" s="39"/>
       <c r="D25" s="39"/>
-      <c r="E25" s="91"/>
-      <c r="F25" s="91"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="104"/>
       <c r="G25" s="39"/>
       <c r="H25" s="39"/>
       <c r="I25" s="44"/>
-      <c r="J25" s="92"/>
-      <c r="K25" s="92"/>
+      <c r="J25" s="105"/>
+      <c r="K25" s="105"/>
       <c r="L25" s="41"/>
       <c r="M25" s="45"/>
       <c r="N25" s="46"/>
-      <c r="O25" s="83"/>
-      <c r="P25" s="84"/>
+      <c r="O25" s="80"/>
+      <c r="P25" s="81"/>
     </row>
     <row r="26" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="36">
@@ -2964,18 +2961,18 @@
       </c>
       <c r="C26" s="39"/>
       <c r="D26" s="39"/>
-      <c r="E26" s="91"/>
-      <c r="F26" s="91"/>
+      <c r="E26" s="104"/>
+      <c r="F26" s="104"/>
       <c r="G26" s="39"/>
       <c r="H26" s="39"/>
       <c r="I26" s="44"/>
-      <c r="J26" s="92"/>
-      <c r="K26" s="92"/>
+      <c r="J26" s="105"/>
+      <c r="K26" s="105"/>
       <c r="L26" s="41"/>
       <c r="M26" s="45"/>
       <c r="N26" s="46"/>
-      <c r="O26" s="83"/>
-      <c r="P26" s="84"/>
+      <c r="O26" s="80"/>
+      <c r="P26" s="81"/>
     </row>
     <row r="27" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="36">
@@ -2983,18 +2980,18 @@
       </c>
       <c r="C27" s="39"/>
       <c r="D27" s="39"/>
-      <c r="E27" s="91"/>
-      <c r="F27" s="91"/>
+      <c r="E27" s="104"/>
+      <c r="F27" s="104"/>
       <c r="G27" s="39"/>
       <c r="H27" s="39"/>
       <c r="I27" s="44"/>
-      <c r="J27" s="92"/>
-      <c r="K27" s="92"/>
+      <c r="J27" s="105"/>
+      <c r="K27" s="105"/>
       <c r="L27" s="47"/>
       <c r="M27" s="45"/>
       <c r="N27" s="46"/>
-      <c r="O27" s="83"/>
-      <c r="P27" s="84"/>
+      <c r="O27" s="80"/>
+      <c r="P27" s="81"/>
     </row>
     <row r="28" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="36">
@@ -3002,18 +2999,18 @@
       </c>
       <c r="C28" s="39"/>
       <c r="D28" s="39"/>
-      <c r="E28" s="91"/>
-      <c r="F28" s="91"/>
+      <c r="E28" s="104"/>
+      <c r="F28" s="104"/>
       <c r="G28" s="39"/>
       <c r="H28" s="39"/>
       <c r="I28" s="44"/>
-      <c r="J28" s="92"/>
-      <c r="K28" s="92"/>
+      <c r="J28" s="105"/>
+      <c r="K28" s="105"/>
       <c r="L28" s="47"/>
       <c r="M28" s="45"/>
       <c r="N28" s="46"/>
-      <c r="O28" s="83"/>
-      <c r="P28" s="84"/>
+      <c r="O28" s="80"/>
+      <c r="P28" s="81"/>
     </row>
     <row r="29" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="36">
@@ -3021,18 +3018,18 @@
       </c>
       <c r="C29" s="39"/>
       <c r="D29" s="39"/>
-      <c r="E29" s="91"/>
-      <c r="F29" s="91"/>
+      <c r="E29" s="104"/>
+      <c r="F29" s="104"/>
       <c r="G29" s="39"/>
       <c r="H29" s="39"/>
       <c r="I29" s="44"/>
-      <c r="J29" s="92"/>
-      <c r="K29" s="92"/>
+      <c r="J29" s="105"/>
+      <c r="K29" s="105"/>
       <c r="L29" s="47"/>
       <c r="M29" s="48"/>
       <c r="N29" s="49"/>
-      <c r="O29" s="83"/>
-      <c r="P29" s="84"/>
+      <c r="O29" s="80"/>
+      <c r="P29" s="81"/>
     </row>
     <row r="30" spans="2:16" ht="129.94999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="37">
@@ -3040,26 +3037,26 @@
       </c>
       <c r="C30" s="53"/>
       <c r="D30" s="53"/>
-      <c r="E30" s="93"/>
-      <c r="F30" s="93"/>
+      <c r="E30" s="143"/>
+      <c r="F30" s="143"/>
       <c r="G30" s="53"/>
       <c r="H30" s="53"/>
       <c r="I30" s="54"/>
-      <c r="J30" s="94"/>
-      <c r="K30" s="94"/>
+      <c r="J30" s="144"/>
+      <c r="K30" s="144"/>
       <c r="L30" s="50"/>
       <c r="M30" s="51"/>
       <c r="N30" s="52"/>
-      <c r="O30" s="156"/>
-      <c r="P30" s="157"/>
+      <c r="O30" s="99"/>
+      <c r="P30" s="100"/>
     </row>
     <row r="31" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H31" s="154" t="s">
+      <c r="H31" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="I31" s="155"/>
-      <c r="J31" s="155"/>
-      <c r="K31" s="155"/>
+      <c r="I31" s="98"/>
+      <c r="J31" s="98"/>
+      <c r="K31" s="98"/>
       <c r="L31" s="26">
         <f>SUM(L12:L30)</f>
         <v>0</v>
@@ -3073,13 +3070,13 @@
       <c r="L32" s="4"/>
     </row>
     <row r="33" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="90" t="s">
+      <c r="B33" s="142" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="90"/>
-      <c r="D33" s="90"/>
-      <c r="E33" s="90"/>
-      <c r="F33" s="90"/>
+      <c r="C33" s="142"/>
+      <c r="D33" s="142"/>
+      <c r="E33" s="142"/>
+      <c r="F33" s="142"/>
       <c r="H33" s="28"/>
       <c r="I33" s="28"/>
       <c r="J33" s="28"/>
@@ -3104,13 +3101,13 @@
       <c r="J34" s="60"/>
       <c r="K34" s="60"/>
       <c r="L34" s="61"/>
-      <c r="M34" s="79" t="s">
+      <c r="M34" s="152" t="s">
         <v>233</v>
       </c>
-      <c r="N34" s="80"/>
-      <c r="O34" s="80"/>
-      <c r="P34" s="144" t="s">
-        <v>240</v>
+      <c r="N34" s="153"/>
+      <c r="O34" s="153"/>
+      <c r="P34" s="87" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="35" spans="2:16" ht="21" x14ac:dyDescent="0.35">
@@ -3125,10 +3122,10 @@
       <c r="J35" s="67"/>
       <c r="K35" s="67"/>
       <c r="L35" s="68"/>
-      <c r="M35" s="81"/>
-      <c r="N35" s="82"/>
-      <c r="O35" s="82"/>
-      <c r="P35" s="145"/>
+      <c r="M35" s="154"/>
+      <c r="N35" s="155"/>
+      <c r="O35" s="155"/>
+      <c r="P35" s="88"/>
     </row>
     <row r="36" spans="2:16" ht="21" x14ac:dyDescent="0.35">
       <c r="B36" s="62"/>
@@ -3142,10 +3139,10 @@
       <c r="J36" s="67"/>
       <c r="K36" s="67"/>
       <c r="L36" s="68"/>
-      <c r="M36" s="81"/>
-      <c r="N36" s="82"/>
-      <c r="O36" s="82"/>
-      <c r="P36" s="145"/>
+      <c r="M36" s="154"/>
+      <c r="N36" s="155"/>
+      <c r="O36" s="155"/>
+      <c r="P36" s="88"/>
     </row>
     <row r="37" spans="2:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="62"/>
@@ -3159,37 +3156,37 @@
       <c r="J37" s="67"/>
       <c r="K37" s="67"/>
       <c r="L37" s="68"/>
-      <c r="M37" s="81" t="s">
+      <c r="M37" s="154" t="s">
         <v>236</v>
       </c>
-      <c r="N37" s="82"/>
-      <c r="O37" s="82"/>
-      <c r="P37" s="77" t="s">
+      <c r="N37" s="155"/>
+      <c r="O37" s="155"/>
+      <c r="P37" s="150" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="38" spans="2:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="B38" s="95" t="s">
+      <c r="B38" s="77" t="s">
         <v>237</v>
       </c>
-      <c r="C38" s="96"/>
-      <c r="D38" s="96"/>
-      <c r="E38" s="97"/>
-      <c r="F38" s="95" t="s">
-        <v>238</v>
-      </c>
-      <c r="G38" s="96"/>
-      <c r="H38" s="96"/>
-      <c r="I38" s="95" t="s">
-        <v>239</v>
-      </c>
-      <c r="J38" s="96"/>
-      <c r="K38" s="96"/>
-      <c r="L38" s="97"/>
-      <c r="M38" s="81"/>
-      <c r="N38" s="82"/>
-      <c r="O38" s="82"/>
-      <c r="P38" s="77"/>
+      <c r="C38" s="78"/>
+      <c r="D38" s="78"/>
+      <c r="E38" s="79"/>
+      <c r="F38" s="77" t="s">
+        <v>237</v>
+      </c>
+      <c r="G38" s="78"/>
+      <c r="H38" s="78"/>
+      <c r="I38" s="77" t="s">
+        <v>240</v>
+      </c>
+      <c r="J38" s="78"/>
+      <c r="K38" s="78"/>
+      <c r="L38" s="79"/>
+      <c r="M38" s="154"/>
+      <c r="N38" s="155"/>
+      <c r="O38" s="155"/>
+      <c r="P38" s="150"/>
     </row>
     <row r="39" spans="2:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B39" s="71"/>
@@ -3203,10 +3200,10 @@
       <c r="J39" s="75"/>
       <c r="K39" s="75"/>
       <c r="L39" s="76"/>
-      <c r="M39" s="88"/>
-      <c r="N39" s="89"/>
-      <c r="O39" s="89"/>
-      <c r="P39" s="78"/>
+      <c r="M39" s="156"/>
+      <c r="N39" s="157"/>
+      <c r="O39" s="157"/>
+      <c r="P39" s="151"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" selectUnlockedCells="1"/>
@@ -3217,6 +3214,86 @@
     <protectedRange sqref="J7:O7" name="Rango1_1"/>
   </protectedRanges>
   <mergeCells count="96">
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="P37:P39"/>
+    <mergeCell ref="M34:O36"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="M37:O39"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="J10:K11"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="B1:D8"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="E1:P1"/>
+    <mergeCell ref="E2:P2"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="J6:P6"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="E17:F17"/>
     <mergeCell ref="I38:L38"/>
     <mergeCell ref="O13:P13"/>
     <mergeCell ref="J12:K12"/>
@@ -3233,86 +3310,6 @@
     <mergeCell ref="O29:P29"/>
     <mergeCell ref="O30:P30"/>
     <mergeCell ref="O14:P14"/>
-    <mergeCell ref="J6:P6"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="B1:D8"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="E1:P1"/>
-    <mergeCell ref="E2:P2"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="J10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="P37:P39"/>
-    <mergeCell ref="M34:O36"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="M37:O39"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:K4">

--- a/static/documentos/reporte_19.xlsx
+++ b/static/documentos/reporte_19.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador.SERVIDOR-HP.002\Desktop\Nueva carpeta (2)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador.SERVIDOR-HP.002\Desktop\Nueva carpeta\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -114,15 +114,6 @@
     <t>Soporte que respalda:</t>
   </si>
   <si>
-    <t>Fin:</t>
-  </si>
-  <si>
-    <t>Inicio:</t>
-  </si>
-  <si>
-    <t>Periodo de adquisición de bien o servicio</t>
-  </si>
-  <si>
     <t>Numero de pagos a efectuar en el presente reporte:</t>
   </si>
   <si>
@@ -774,6 +765,15 @@
   </si>
   <si>
     <t>Coordinador administrativo</t>
+  </si>
+  <si>
+    <t>Fechas del reporte</t>
+  </si>
+  <si>
+    <t>Pago:</t>
+  </si>
+  <si>
+    <t>Cargue:</t>
   </si>
 </sst>
 </file>
@@ -1866,6 +1866,69 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1875,11 +1938,122 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1890,9 +2064,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="8" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1937,177 +2108,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2147,7 +2147,7 @@
         <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2475,219 +2475,219 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="24" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="110"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="120" t="s">
+      <c r="B1" s="105"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
-      <c r="N1" s="121"/>
-      <c r="O1" s="121"/>
-      <c r="P1" s="122"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="117"/>
     </row>
     <row r="2" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="113"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="123" t="s">
+      <c r="B2" s="108"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="124"/>
-      <c r="M2" s="124"/>
-      <c r="N2" s="124"/>
-      <c r="O2" s="124"/>
-      <c r="P2" s="125"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="119"/>
+      <c r="P2" s="120"/>
     </row>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="113"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="115"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="110"/>
     </row>
     <row r="4" spans="2:16" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B4" s="113"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
       <c r="E4" s="29" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="33"/>
-      <c r="G4" s="118" t="s">
+      <c r="G4" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="118"/>
-      <c r="I4" s="119"/>
-      <c r="J4" s="119"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="118" t="s">
+      <c r="H4" s="113"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="118"/>
-      <c r="N4" s="118"/>
-      <c r="O4" s="126"/>
-      <c r="P4" s="127"/>
+      <c r="M4" s="113"/>
+      <c r="N4" s="113"/>
+      <c r="O4" s="121"/>
+      <c r="P4" s="122"/>
     </row>
     <row r="5" spans="2:16" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B5" s="113"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
       <c r="E5" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="132"/>
-      <c r="G5" s="132"/>
-      <c r="H5" s="132"/>
-      <c r="I5" s="132"/>
-      <c r="J5" s="132"/>
-      <c r="K5" s="132"/>
-      <c r="L5" s="133" t="s">
+      <c r="F5" s="127"/>
+      <c r="G5" s="127"/>
+      <c r="H5" s="127"/>
+      <c r="I5" s="127"/>
+      <c r="J5" s="127"/>
+      <c r="K5" s="127"/>
+      <c r="L5" s="128" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="133"/>
-      <c r="N5" s="133"/>
-      <c r="O5" s="128"/>
-      <c r="P5" s="129"/>
+      <c r="M5" s="128"/>
+      <c r="N5" s="128"/>
+      <c r="O5" s="123"/>
+      <c r="P5" s="124"/>
     </row>
     <row r="6" spans="2:16" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="B6" s="113"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
       <c r="E6" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="128"/>
-      <c r="G6" s="130"/>
-      <c r="H6" s="130"/>
-      <c r="I6" s="131"/>
-      <c r="J6" s="101" t="s">
-        <v>234</v>
-      </c>
-      <c r="K6" s="102"/>
-      <c r="L6" s="102"/>
-      <c r="M6" s="102"/>
-      <c r="N6" s="102"/>
-      <c r="O6" s="102"/>
-      <c r="P6" s="103"/>
+      <c r="F6" s="123"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="135" t="s">
+        <v>231</v>
+      </c>
+      <c r="K6" s="136"/>
+      <c r="L6" s="136"/>
+      <c r="M6" s="136"/>
+      <c r="N6" s="136"/>
+      <c r="O6" s="136"/>
+      <c r="P6" s="137"/>
     </row>
     <row r="7" spans="2:16" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B7" s="113"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
+      <c r="B7" s="108"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="109"/>
       <c r="E7" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="F7" s="123"/>
+      <c r="G7" s="125"/>
+      <c r="H7" s="125"/>
+      <c r="I7" s="126"/>
+      <c r="J7" s="93" t="s">
+        <v>238</v>
+      </c>
+      <c r="K7" s="94"/>
+      <c r="L7" s="94"/>
+      <c r="M7" s="94"/>
+      <c r="N7" s="94"/>
+      <c r="O7" s="94"/>
+      <c r="P7" s="95"/>
+    </row>
+    <row r="8" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="111"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="129" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="130"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="131" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="132"/>
+      <c r="J8" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="F7" s="128"/>
-      <c r="G7" s="130"/>
-      <c r="H7" s="130"/>
-      <c r="I7" s="131"/>
-      <c r="J7" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" s="146"/>
-      <c r="L7" s="146"/>
-      <c r="M7" s="146"/>
-      <c r="N7" s="146"/>
-      <c r="O7" s="146"/>
-      <c r="P7" s="147"/>
-    </row>
-    <row r="8" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="116"/>
-      <c r="C8" s="117"/>
-      <c r="D8" s="117"/>
-      <c r="E8" s="134" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="135"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="136" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="137"/>
-      <c r="J8" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="85"/>
-      <c r="L8" s="138"/>
-      <c r="M8" s="83" t="s">
-        <v>27</v>
-      </c>
-      <c r="N8" s="84"/>
-      <c r="O8" s="85"/>
-      <c r="P8" s="86"/>
+      <c r="K8" s="133"/>
+      <c r="L8" s="134"/>
+      <c r="M8" s="141" t="s">
+        <v>240</v>
+      </c>
+      <c r="N8" s="142"/>
+      <c r="O8" s="133"/>
+      <c r="P8" s="143"/>
     </row>
     <row r="9" spans="2:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="139" t="s">
+      <c r="B10" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="106" t="s">
+      <c r="C10" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="106" t="s">
+      <c r="D10" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="106" t="s">
+      <c r="E10" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="106"/>
-      <c r="G10" s="106" t="s">
+      <c r="F10" s="96"/>
+      <c r="G10" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="106" t="s">
+      <c r="H10" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="108" t="s">
+      <c r="I10" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="106" t="s">
+      <c r="J10" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="106"/>
-      <c r="L10" s="148" t="s">
-        <v>183</v>
-      </c>
-      <c r="M10" s="95" t="s">
+      <c r="K10" s="96"/>
+      <c r="L10" s="77" t="s">
+        <v>180</v>
+      </c>
+      <c r="M10" s="152" t="s">
         <v>10</v>
       </c>
-      <c r="N10" s="96"/>
-      <c r="O10" s="89" t="s">
+      <c r="N10" s="153"/>
+      <c r="O10" s="146" t="s">
         <v>8</v>
       </c>
-      <c r="P10" s="90"/>
+      <c r="P10" s="147"/>
     </row>
     <row r="11" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="140"/>
-      <c r="C11" s="107"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="107"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="107"/>
-      <c r="I11" s="109"/>
-      <c r="J11" s="107"/>
-      <c r="K11" s="107"/>
-      <c r="L11" s="149"/>
+      <c r="B11" s="102"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="97"/>
+      <c r="I11" s="139"/>
+      <c r="J11" s="97"/>
+      <c r="K11" s="97"/>
+      <c r="L11" s="78"/>
       <c r="M11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="N11" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="O11" s="91"/>
-      <c r="P11" s="92"/>
+      <c r="O11" s="148"/>
+      <c r="P11" s="149"/>
     </row>
     <row r="12" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="35">
@@ -2695,18 +2695,18 @@
       </c>
       <c r="C12" s="38"/>
       <c r="D12" s="39"/>
-      <c r="E12" s="141"/>
-      <c r="F12" s="141"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
       <c r="G12" s="39"/>
       <c r="H12" s="38"/>
       <c r="I12" s="40"/>
-      <c r="J12" s="82"/>
-      <c r="K12" s="82"/>
+      <c r="J12" s="140"/>
+      <c r="K12" s="140"/>
       <c r="L12" s="41"/>
       <c r="M12" s="42"/>
       <c r="N12" s="43"/>
-      <c r="O12" s="93"/>
-      <c r="P12" s="94"/>
+      <c r="O12" s="150"/>
+      <c r="P12" s="151"/>
     </row>
     <row r="13" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="36">
@@ -2714,18 +2714,18 @@
       </c>
       <c r="C13" s="39"/>
       <c r="D13" s="39"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="104"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="90"/>
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
       <c r="I13" s="44"/>
-      <c r="J13" s="105"/>
-      <c r="K13" s="105"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="79"/>
       <c r="L13" s="41"/>
       <c r="M13" s="45"/>
       <c r="N13" s="46"/>
-      <c r="O13" s="80"/>
-      <c r="P13" s="81"/>
+      <c r="O13" s="86"/>
+      <c r="P13" s="87"/>
     </row>
     <row r="14" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="36">
@@ -2733,18 +2733,18 @@
       </c>
       <c r="C14" s="39"/>
       <c r="D14" s="39"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="104"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
       <c r="G14" s="39"/>
       <c r="H14" s="39"/>
       <c r="I14" s="44"/>
-      <c r="J14" s="105"/>
-      <c r="K14" s="105"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="79"/>
       <c r="L14" s="41"/>
       <c r="M14" s="45"/>
       <c r="N14" s="46"/>
-      <c r="O14" s="80"/>
-      <c r="P14" s="81"/>
+      <c r="O14" s="86"/>
+      <c r="P14" s="87"/>
     </row>
     <row r="15" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="36">
@@ -2752,18 +2752,18 @@
       </c>
       <c r="C15" s="39"/>
       <c r="D15" s="39"/>
-      <c r="E15" s="104"/>
-      <c r="F15" s="104"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
       <c r="G15" s="39"/>
       <c r="H15" s="39"/>
       <c r="I15" s="44"/>
-      <c r="J15" s="105"/>
-      <c r="K15" s="105"/>
+      <c r="J15" s="79"/>
+      <c r="K15" s="79"/>
       <c r="L15" s="41"/>
       <c r="M15" s="45"/>
       <c r="N15" s="46"/>
-      <c r="O15" s="80"/>
-      <c r="P15" s="81"/>
+      <c r="O15" s="86"/>
+      <c r="P15" s="87"/>
     </row>
     <row r="16" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="36">
@@ -2771,18 +2771,18 @@
       </c>
       <c r="C16" s="39"/>
       <c r="D16" s="39"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="104"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
       <c r="G16" s="39"/>
       <c r="H16" s="39"/>
       <c r="I16" s="44"/>
-      <c r="J16" s="105"/>
-      <c r="K16" s="105"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="79"/>
       <c r="L16" s="41"/>
       <c r="M16" s="45"/>
       <c r="N16" s="46"/>
-      <c r="O16" s="80"/>
-      <c r="P16" s="81"/>
+      <c r="O16" s="86"/>
+      <c r="P16" s="87"/>
     </row>
     <row r="17" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="36">
@@ -2790,18 +2790,18 @@
       </c>
       <c r="C17" s="39"/>
       <c r="D17" s="39"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="104"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
       <c r="G17" s="39"/>
       <c r="H17" s="39"/>
       <c r="I17" s="44"/>
-      <c r="J17" s="105"/>
-      <c r="K17" s="105"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="79"/>
       <c r="L17" s="41"/>
       <c r="M17" s="45"/>
       <c r="N17" s="46"/>
-      <c r="O17" s="80"/>
-      <c r="P17" s="81"/>
+      <c r="O17" s="86"/>
+      <c r="P17" s="87"/>
     </row>
     <row r="18" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="36">
@@ -2809,18 +2809,18 @@
       </c>
       <c r="C18" s="39"/>
       <c r="D18" s="39"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="104"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="90"/>
       <c r="G18" s="39"/>
       <c r="H18" s="39"/>
       <c r="I18" s="44"/>
-      <c r="J18" s="105"/>
-      <c r="K18" s="105"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="79"/>
       <c r="L18" s="41"/>
       <c r="M18" s="45"/>
       <c r="N18" s="46"/>
-      <c r="O18" s="80"/>
-      <c r="P18" s="81"/>
+      <c r="O18" s="86"/>
+      <c r="P18" s="87"/>
     </row>
     <row r="19" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="36">
@@ -2828,18 +2828,18 @@
       </c>
       <c r="C19" s="39"/>
       <c r="D19" s="39"/>
-      <c r="E19" s="104"/>
-      <c r="F19" s="104"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="90"/>
       <c r="G19" s="39"/>
       <c r="H19" s="39"/>
       <c r="I19" s="44"/>
-      <c r="J19" s="105"/>
-      <c r="K19" s="105"/>
+      <c r="J19" s="79"/>
+      <c r="K19" s="79"/>
       <c r="L19" s="41"/>
       <c r="M19" s="45"/>
       <c r="N19" s="46"/>
-      <c r="O19" s="80"/>
-      <c r="P19" s="81"/>
+      <c r="O19" s="86"/>
+      <c r="P19" s="87"/>
     </row>
     <row r="20" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="36">
@@ -2847,18 +2847,18 @@
       </c>
       <c r="C20" s="39"/>
       <c r="D20" s="39"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="104"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="90"/>
       <c r="G20" s="39"/>
       <c r="H20" s="39"/>
       <c r="I20" s="44"/>
-      <c r="J20" s="105"/>
-      <c r="K20" s="105"/>
+      <c r="J20" s="79"/>
+      <c r="K20" s="79"/>
       <c r="L20" s="41"/>
       <c r="M20" s="45"/>
       <c r="N20" s="46"/>
-      <c r="O20" s="80"/>
-      <c r="P20" s="81"/>
+      <c r="O20" s="86"/>
+      <c r="P20" s="87"/>
     </row>
     <row r="21" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="36">
@@ -2866,18 +2866,18 @@
       </c>
       <c r="C21" s="39"/>
       <c r="D21" s="39"/>
-      <c r="E21" s="104"/>
-      <c r="F21" s="104"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="90"/>
       <c r="G21" s="39"/>
       <c r="H21" s="39"/>
       <c r="I21" s="44"/>
-      <c r="J21" s="105"/>
-      <c r="K21" s="105"/>
+      <c r="J21" s="79"/>
+      <c r="K21" s="79"/>
       <c r="L21" s="41"/>
       <c r="M21" s="45"/>
       <c r="N21" s="46"/>
-      <c r="O21" s="80"/>
-      <c r="P21" s="81"/>
+      <c r="O21" s="86"/>
+      <c r="P21" s="87"/>
     </row>
     <row r="22" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="36">
@@ -2885,18 +2885,18 @@
       </c>
       <c r="C22" s="39"/>
       <c r="D22" s="39"/>
-      <c r="E22" s="104"/>
-      <c r="F22" s="104"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
       <c r="G22" s="39"/>
       <c r="H22" s="39"/>
       <c r="I22" s="44"/>
-      <c r="J22" s="105"/>
-      <c r="K22" s="105"/>
+      <c r="J22" s="79"/>
+      <c r="K22" s="79"/>
       <c r="L22" s="41"/>
       <c r="M22" s="45"/>
       <c r="N22" s="46"/>
-      <c r="O22" s="80"/>
-      <c r="P22" s="81"/>
+      <c r="O22" s="86"/>
+      <c r="P22" s="87"/>
     </row>
     <row r="23" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="36">
@@ -2904,18 +2904,18 @@
       </c>
       <c r="C23" s="39"/>
       <c r="D23" s="39"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="104"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
       <c r="G23" s="39"/>
       <c r="H23" s="39"/>
       <c r="I23" s="44"/>
-      <c r="J23" s="105"/>
-      <c r="K23" s="105"/>
+      <c r="J23" s="79"/>
+      <c r="K23" s="79"/>
       <c r="L23" s="41"/>
       <c r="M23" s="45"/>
       <c r="N23" s="46"/>
-      <c r="O23" s="80"/>
-      <c r="P23" s="81"/>
+      <c r="O23" s="86"/>
+      <c r="P23" s="87"/>
     </row>
     <row r="24" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="36">
@@ -2923,18 +2923,18 @@
       </c>
       <c r="C24" s="39"/>
       <c r="D24" s="39"/>
-      <c r="E24" s="104"/>
-      <c r="F24" s="104"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="90"/>
       <c r="G24" s="39"/>
       <c r="H24" s="39"/>
       <c r="I24" s="44"/>
-      <c r="J24" s="105"/>
-      <c r="K24" s="105"/>
+      <c r="J24" s="79"/>
+      <c r="K24" s="79"/>
       <c r="L24" s="41"/>
       <c r="M24" s="45"/>
       <c r="N24" s="46"/>
-      <c r="O24" s="80"/>
-      <c r="P24" s="81"/>
+      <c r="O24" s="86"/>
+      <c r="P24" s="87"/>
     </row>
     <row r="25" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="36">
@@ -2942,18 +2942,18 @@
       </c>
       <c r="C25" s="39"/>
       <c r="D25" s="39"/>
-      <c r="E25" s="104"/>
-      <c r="F25" s="104"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="90"/>
       <c r="G25" s="39"/>
       <c r="H25" s="39"/>
       <c r="I25" s="44"/>
-      <c r="J25" s="105"/>
-      <c r="K25" s="105"/>
+      <c r="J25" s="79"/>
+      <c r="K25" s="79"/>
       <c r="L25" s="41"/>
       <c r="M25" s="45"/>
       <c r="N25" s="46"/>
-      <c r="O25" s="80"/>
-      <c r="P25" s="81"/>
+      <c r="O25" s="86"/>
+      <c r="P25" s="87"/>
     </row>
     <row r="26" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="36">
@@ -2961,18 +2961,18 @@
       </c>
       <c r="C26" s="39"/>
       <c r="D26" s="39"/>
-      <c r="E26" s="104"/>
-      <c r="F26" s="104"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="90"/>
       <c r="G26" s="39"/>
       <c r="H26" s="39"/>
       <c r="I26" s="44"/>
-      <c r="J26" s="105"/>
-      <c r="K26" s="105"/>
+      <c r="J26" s="79"/>
+      <c r="K26" s="79"/>
       <c r="L26" s="41"/>
       <c r="M26" s="45"/>
       <c r="N26" s="46"/>
-      <c r="O26" s="80"/>
-      <c r="P26" s="81"/>
+      <c r="O26" s="86"/>
+      <c r="P26" s="87"/>
     </row>
     <row r="27" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="36">
@@ -2980,18 +2980,18 @@
       </c>
       <c r="C27" s="39"/>
       <c r="D27" s="39"/>
-      <c r="E27" s="104"/>
-      <c r="F27" s="104"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="90"/>
       <c r="G27" s="39"/>
       <c r="H27" s="39"/>
       <c r="I27" s="44"/>
-      <c r="J27" s="105"/>
-      <c r="K27" s="105"/>
+      <c r="J27" s="79"/>
+      <c r="K27" s="79"/>
       <c r="L27" s="47"/>
       <c r="M27" s="45"/>
       <c r="N27" s="46"/>
-      <c r="O27" s="80"/>
-      <c r="P27" s="81"/>
+      <c r="O27" s="86"/>
+      <c r="P27" s="87"/>
     </row>
     <row r="28" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="36">
@@ -2999,18 +2999,18 @@
       </c>
       <c r="C28" s="39"/>
       <c r="D28" s="39"/>
-      <c r="E28" s="104"/>
-      <c r="F28" s="104"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="90"/>
       <c r="G28" s="39"/>
       <c r="H28" s="39"/>
       <c r="I28" s="44"/>
-      <c r="J28" s="105"/>
-      <c r="K28" s="105"/>
+      <c r="J28" s="79"/>
+      <c r="K28" s="79"/>
       <c r="L28" s="47"/>
       <c r="M28" s="45"/>
       <c r="N28" s="46"/>
-      <c r="O28" s="80"/>
-      <c r="P28" s="81"/>
+      <c r="O28" s="86"/>
+      <c r="P28" s="87"/>
     </row>
     <row r="29" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="36">
@@ -3018,18 +3018,18 @@
       </c>
       <c r="C29" s="39"/>
       <c r="D29" s="39"/>
-      <c r="E29" s="104"/>
-      <c r="F29" s="104"/>
+      <c r="E29" s="90"/>
+      <c r="F29" s="90"/>
       <c r="G29" s="39"/>
       <c r="H29" s="39"/>
       <c r="I29" s="44"/>
-      <c r="J29" s="105"/>
-      <c r="K29" s="105"/>
+      <c r="J29" s="79"/>
+      <c r="K29" s="79"/>
       <c r="L29" s="47"/>
       <c r="M29" s="48"/>
       <c r="N29" s="49"/>
-      <c r="O29" s="80"/>
-      <c r="P29" s="81"/>
+      <c r="O29" s="86"/>
+      <c r="P29" s="87"/>
     </row>
     <row r="30" spans="2:16" ht="129.94999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="37">
@@ -3037,26 +3037,26 @@
       </c>
       <c r="C30" s="53"/>
       <c r="D30" s="53"/>
-      <c r="E30" s="143"/>
-      <c r="F30" s="143"/>
+      <c r="E30" s="91"/>
+      <c r="F30" s="91"/>
       <c r="G30" s="53"/>
       <c r="H30" s="53"/>
       <c r="I30" s="54"/>
-      <c r="J30" s="144"/>
-      <c r="K30" s="144"/>
+      <c r="J30" s="92"/>
+      <c r="K30" s="92"/>
       <c r="L30" s="50"/>
       <c r="M30" s="51"/>
       <c r="N30" s="52"/>
-      <c r="O30" s="99"/>
-      <c r="P30" s="100"/>
+      <c r="O30" s="156"/>
+      <c r="P30" s="157"/>
     </row>
     <row r="31" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H31" s="97" t="s">
+      <c r="H31" s="154" t="s">
         <v>22</v>
       </c>
-      <c r="I31" s="98"/>
-      <c r="J31" s="98"/>
-      <c r="K31" s="98"/>
+      <c r="I31" s="155"/>
+      <c r="J31" s="155"/>
+      <c r="K31" s="155"/>
       <c r="L31" s="26">
         <f>SUM(L12:L30)</f>
         <v>0</v>
@@ -3070,13 +3070,13 @@
       <c r="L32" s="4"/>
     </row>
     <row r="33" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="142" t="s">
+      <c r="B33" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="142"/>
-      <c r="D33" s="142"/>
-      <c r="E33" s="142"/>
-      <c r="F33" s="142"/>
+      <c r="C33" s="104"/>
+      <c r="D33" s="104"/>
+      <c r="E33" s="104"/>
+      <c r="F33" s="104"/>
       <c r="H33" s="28"/>
       <c r="I33" s="28"/>
       <c r="J33" s="28"/>
@@ -3085,29 +3085,29 @@
     </row>
     <row r="34" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="55" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C34" s="56"/>
       <c r="D34" s="56"/>
       <c r="E34" s="56"/>
       <c r="F34" s="57" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G34" s="58"/>
       <c r="H34" s="59"/>
       <c r="I34" s="57" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="J34" s="60"/>
       <c r="K34" s="60"/>
       <c r="L34" s="61"/>
-      <c r="M34" s="152" t="s">
-        <v>233</v>
-      </c>
-      <c r="N34" s="153"/>
-      <c r="O34" s="153"/>
-      <c r="P34" s="87" t="s">
-        <v>238</v>
+      <c r="M34" s="82" t="s">
+        <v>230</v>
+      </c>
+      <c r="N34" s="83"/>
+      <c r="O34" s="83"/>
+      <c r="P34" s="144" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="35" spans="2:16" ht="21" x14ac:dyDescent="0.35">
@@ -3122,10 +3122,10 @@
       <c r="J35" s="67"/>
       <c r="K35" s="67"/>
       <c r="L35" s="68"/>
-      <c r="M35" s="154"/>
-      <c r="N35" s="155"/>
-      <c r="O35" s="155"/>
-      <c r="P35" s="88"/>
+      <c r="M35" s="84"/>
+      <c r="N35" s="85"/>
+      <c r="O35" s="85"/>
+      <c r="P35" s="145"/>
     </row>
     <row r="36" spans="2:16" ht="21" x14ac:dyDescent="0.35">
       <c r="B36" s="62"/>
@@ -3139,10 +3139,10 @@
       <c r="J36" s="67"/>
       <c r="K36" s="67"/>
       <c r="L36" s="68"/>
-      <c r="M36" s="154"/>
-      <c r="N36" s="155"/>
-      <c r="O36" s="155"/>
-      <c r="P36" s="88"/>
+      <c r="M36" s="84"/>
+      <c r="N36" s="85"/>
+      <c r="O36" s="85"/>
+      <c r="P36" s="145"/>
     </row>
     <row r="37" spans="2:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="62"/>
@@ -3156,37 +3156,37 @@
       <c r="J37" s="67"/>
       <c r="K37" s="67"/>
       <c r="L37" s="68"/>
-      <c r="M37" s="154" t="s">
-        <v>236</v>
-      </c>
-      <c r="N37" s="155"/>
-      <c r="O37" s="155"/>
-      <c r="P37" s="150" t="s">
+      <c r="M37" s="84" t="s">
+        <v>233</v>
+      </c>
+      <c r="N37" s="85"/>
+      <c r="O37" s="85"/>
+      <c r="P37" s="80" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="38" spans="2:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="B38" s="77" t="s">
+      <c r="B38" s="98" t="s">
+        <v>234</v>
+      </c>
+      <c r="C38" s="99"/>
+      <c r="D38" s="99"/>
+      <c r="E38" s="100"/>
+      <c r="F38" s="98" t="s">
+        <v>234</v>
+      </c>
+      <c r="G38" s="99"/>
+      <c r="H38" s="99"/>
+      <c r="I38" s="98" t="s">
         <v>237</v>
       </c>
-      <c r="C38" s="78"/>
-      <c r="D38" s="78"/>
-      <c r="E38" s="79"/>
-      <c r="F38" s="77" t="s">
-        <v>237</v>
-      </c>
-      <c r="G38" s="78"/>
-      <c r="H38" s="78"/>
-      <c r="I38" s="77" t="s">
-        <v>240</v>
-      </c>
-      <c r="J38" s="78"/>
-      <c r="K38" s="78"/>
-      <c r="L38" s="79"/>
-      <c r="M38" s="154"/>
-      <c r="N38" s="155"/>
-      <c r="O38" s="155"/>
-      <c r="P38" s="150"/>
+      <c r="J38" s="99"/>
+      <c r="K38" s="99"/>
+      <c r="L38" s="100"/>
+      <c r="M38" s="84"/>
+      <c r="N38" s="85"/>
+      <c r="O38" s="85"/>
+      <c r="P38" s="80"/>
     </row>
     <row r="39" spans="2:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B39" s="71"/>
@@ -3200,10 +3200,10 @@
       <c r="J39" s="75"/>
       <c r="K39" s="75"/>
       <c r="L39" s="76"/>
-      <c r="M39" s="156"/>
-      <c r="N39" s="157"/>
-      <c r="O39" s="157"/>
-      <c r="P39" s="151"/>
+      <c r="M39" s="88"/>
+      <c r="N39" s="89"/>
+      <c r="O39" s="89"/>
+      <c r="P39" s="81"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" selectUnlockedCells="1"/>
@@ -3214,17 +3214,73 @@
     <protectedRange sqref="J7:O7" name="Rango1_1"/>
   </protectedRanges>
   <mergeCells count="96">
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="P37:P39"/>
-    <mergeCell ref="M34:O36"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="M37:O39"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="P34:P36"/>
+    <mergeCell ref="O10:P11"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="J6:P6"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="B1:D8"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="E1:P1"/>
+    <mergeCell ref="E2:P2"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="F38:H38"/>
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="J29:K29"/>
     <mergeCell ref="E30:F30"/>
@@ -3241,75 +3297,19 @@
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="J10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="P37:P39"/>
+    <mergeCell ref="M34:O36"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="M37:O39"/>
     <mergeCell ref="J26:K26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="B1:D8"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="E1:P1"/>
-    <mergeCell ref="E2:P2"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="J6:P6"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="O13:P13"/>
     <mergeCell ref="J12:K12"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="P34:P36"/>
-    <mergeCell ref="O10:P11"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="O14:P14"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:K4">
@@ -3342,10 +3342,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C1" t="b">
         <f t="shared" ref="C1:C43" si="0">EXACT(A1,B1)</f>
@@ -3357,10 +3357,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C2" t="b">
         <f t="shared" si="0"/>
@@ -3372,10 +3372,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C3" t="b">
         <f t="shared" si="0"/>
@@ -3387,10 +3387,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C4" t="b">
         <f t="shared" si="0"/>
@@ -3402,10 +3402,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C5" t="b">
         <f t="shared" si="0"/>
@@ -3417,10 +3417,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C6" t="b">
         <f t="shared" si="0"/>
@@ -3432,10 +3432,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C7" t="b">
         <f t="shared" si="0"/>
@@ -3447,10 +3447,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C8" t="b">
         <f t="shared" si="0"/>
@@ -3462,10 +3462,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C9" t="b">
         <f t="shared" si="0"/>
@@ -3477,10 +3477,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C10" t="b">
         <f t="shared" si="0"/>
@@ -3492,10 +3492,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C11" t="b">
         <f t="shared" si="0"/>
@@ -3507,10 +3507,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C12" t="b">
         <f t="shared" si="0"/>
@@ -3522,10 +3522,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C13" t="b">
         <f t="shared" si="0"/>
@@ -3537,10 +3537,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C14" t="b">
         <f t="shared" si="0"/>
@@ -3552,10 +3552,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C15" t="b">
         <f t="shared" si="0"/>
@@ -3567,10 +3567,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C16" t="b">
         <f t="shared" si="0"/>
@@ -3582,10 +3582,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C17" t="b">
         <f t="shared" si="0"/>
@@ -3597,10 +3597,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C18" t="b">
         <f t="shared" si="0"/>
@@ -3612,10 +3612,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C19" t="b">
         <f t="shared" si="0"/>
@@ -3627,10 +3627,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C20" t="b">
         <f t="shared" si="0"/>
@@ -3642,10 +3642,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C21" t="b">
         <f t="shared" si="0"/>
@@ -3657,10 +3657,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C22" t="b">
         <f t="shared" si="0"/>
@@ -3687,10 +3687,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C24" t="b">
         <f t="shared" si="0"/>
@@ -3702,10 +3702,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C25" t="b">
         <f t="shared" si="0"/>
@@ -3717,10 +3717,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C26" t="b">
         <f t="shared" si="0"/>
@@ -3732,10 +3732,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C27" t="b">
         <f t="shared" si="0"/>
@@ -3762,10 +3762,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C29" t="b">
         <f t="shared" si="0"/>
@@ -3777,10 +3777,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C30" t="b">
         <f t="shared" si="0"/>
@@ -3792,10 +3792,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C31" t="b">
         <f t="shared" si="0"/>
@@ -3807,10 +3807,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C32" t="b">
         <f t="shared" si="0"/>
@@ -3822,10 +3822,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C33" t="b">
         <f t="shared" si="0"/>
@@ -3837,10 +3837,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C34" t="b">
         <f t="shared" si="0"/>
@@ -3852,10 +3852,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C35" t="b">
         <f t="shared" si="0"/>
@@ -3867,10 +3867,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C36" t="b">
         <f t="shared" si="0"/>
@@ -3882,10 +3882,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C37" t="b">
         <f t="shared" si="0"/>
@@ -3897,10 +3897,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C38" t="b">
         <f t="shared" si="0"/>
@@ -3912,10 +3912,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C39" t="b">
         <f t="shared" si="0"/>
@@ -3927,10 +3927,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C40" t="b">
         <f t="shared" si="0"/>
@@ -3942,10 +3942,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C41" t="b">
         <f t="shared" si="0"/>
@@ -3957,10 +3957,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C42" t="b">
         <f t="shared" si="0"/>
@@ -3972,10 +3972,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C43" t="b">
         <f t="shared" si="0"/>
@@ -4014,28 +4014,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="D1" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="E1" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="F1" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="G1" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="H1" s="22" t="s">
         <v>188</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -4341,13 +4341,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -4355,7 +4355,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -4366,7 +4366,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -4377,7 +4377,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C4">
         <v>6</v>
@@ -4388,7 +4388,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C5">
         <v>7</v>
@@ -4399,7 +4399,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -4410,7 +4410,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C7">
         <v>9</v>
@@ -4421,7 +4421,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C8">
         <v>10</v>
@@ -4432,7 +4432,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C9">
         <v>12</v>
@@ -4443,7 +4443,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C10">
         <v>13</v>
@@ -4454,7 +4454,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C11">
         <v>14</v>
@@ -4465,7 +4465,7 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C12">
         <v>19</v>
@@ -4476,7 +4476,7 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C13">
         <v>23</v>
@@ -4487,7 +4487,7 @@
         <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C14">
         <v>32</v>
@@ -4498,7 +4498,7 @@
         <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C15">
         <v>40</v>
@@ -4509,7 +4509,7 @@
         <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C16">
         <v>41</v>
@@ -4520,7 +4520,7 @@
         <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C17">
         <v>51</v>
@@ -4531,7 +4531,7 @@
         <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C18">
         <v>52</v>
@@ -4542,7 +4542,7 @@
         <v>58</v>
       </c>
       <c r="B19" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C19">
         <v>58</v>
@@ -4553,7 +4553,7 @@
         <v>60</v>
       </c>
       <c r="B20" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C20">
         <v>60</v>
@@ -4564,7 +4564,7 @@
         <v>61</v>
       </c>
       <c r="B21" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C21">
         <v>61</v>
@@ -4575,7 +4575,7 @@
         <v>62</v>
       </c>
       <c r="B22" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C22">
         <v>62</v>
@@ -4586,7 +4586,7 @@
         <v>63</v>
       </c>
       <c r="B23" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C23">
         <v>63</v>
@@ -4597,7 +4597,7 @@
         <v>65</v>
       </c>
       <c r="B24" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C24">
         <v>65</v>
@@ -4608,7 +4608,7 @@
         <v>76</v>
       </c>
       <c r="B25" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C25">
         <v>76</v>
@@ -4619,7 +4619,7 @@
         <v>90</v>
       </c>
       <c r="B26" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C26">
         <v>90</v>
@@ -4630,7 +4630,7 @@
         <v>283</v>
       </c>
       <c r="B27" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C27">
         <v>283</v>
@@ -4641,7 +4641,7 @@
         <v>289</v>
       </c>
       <c r="B28" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C28">
         <v>289</v>
@@ -4652,7 +4652,7 @@
         <v>292</v>
       </c>
       <c r="B29" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C29">
         <v>292</v>
@@ -4663,7 +4663,7 @@
         <v>296</v>
       </c>
       <c r="B30" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C30">
         <v>296</v>
@@ -4701,25 +4701,25 @@
         <v>4</v>
       </c>
       <c r="C1" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="I1" s="16" t="s">
         <v>32</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>35</v>
       </c>
       <c r="J1" s="16" t="s">
         <v>1</v>
@@ -4728,10 +4728,10 @@
         <v>5</v>
       </c>
       <c r="L1" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M1" s="17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
@@ -4739,37 +4739,37 @@
         <v>1098630887</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D2" s="19">
         <v>3132608629</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G2" s="20" t="s">
         <v>24</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J2" s="19" t="s">
         <v>9</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="M2" s="21" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
@@ -4777,37 +4777,37 @@
         <v>1099548034</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D3" s="6">
         <v>3162707702</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>9</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L3" s="10">
         <v>81489704072</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
@@ -4815,37 +4815,37 @@
         <v>1057587077</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D4" s="6">
         <v>3134165999</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>9</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="L4" s="11">
         <v>596382614</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
@@ -4853,37 +4853,37 @@
         <v>1098639059</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D5" s="6">
         <v>3506814958</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>9</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
@@ -4891,37 +4891,37 @@
         <v>1098703596</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D6" s="6">
         <v>3209409025</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>9</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
@@ -4929,37 +4929,37 @@
         <v>91492568</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D7" s="6">
         <v>3144254673</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>9</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L7" s="9">
         <v>29768335611</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
@@ -4967,37 +4967,37 @@
         <v>23498533</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D8" s="6">
         <v>3165554894</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>9</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
@@ -5005,37 +5005,37 @@
         <v>1095794422</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D9" s="6">
         <v>3168746386</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>9</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
@@ -5043,37 +5043,37 @@
         <v>74189878</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D10" s="6">
         <v>3125411780</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>9</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L10" s="12">
         <v>36363295317</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
@@ -5081,37 +5081,37 @@
         <v>28161949</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D11" s="6">
         <v>3112762013</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>9</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
@@ -5119,37 +5119,37 @@
         <v>63535545</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D12" s="6">
         <v>3173650121</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>9</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L12" s="9">
         <v>46170368321</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
@@ -5157,37 +5157,37 @@
         <v>37752780</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D13" s="6">
         <v>3182617356</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J13" s="6" t="s">
         <v>9</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
@@ -5195,37 +5195,37 @@
         <v>63506284</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D14" s="6">
         <v>3156298493</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J14" s="6" t="s">
         <v>9</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L14" s="9">
         <v>29148916584</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
@@ -5239,31 +5239,31 @@
         <v>3123556832</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J15" s="6" t="s">
         <v>9</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L15" s="14" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
@@ -5271,37 +5271,37 @@
         <v>1095812851</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D16" s="6">
         <v>3106692290</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J16" s="6" t="s">
         <v>9</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
@@ -5309,37 +5309,37 @@
         <v>1095821501</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D17" s="6">
         <v>3154668200</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J17" s="6" t="s">
         <v>9</v>
       </c>
       <c r="K17" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
@@ -5347,37 +5347,37 @@
         <v>74130395</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D18" s="6">
         <v>3124580548</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J18" s="6" t="s">
         <v>9</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
@@ -5385,37 +5385,37 @@
         <v>13541294</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D19" s="6">
         <v>3175709009</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J19" s="6" t="s">
         <v>9</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
@@ -5423,37 +5423,37 @@
         <v>74381668</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D20" s="6">
         <v>3112841130</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J20" s="6" t="s">
         <v>9</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
@@ -5461,37 +5461,37 @@
         <v>1099549339</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D21" s="6">
         <v>3184249504</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G21" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="I21" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J21" s="6" t="s">
         <v>9</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
@@ -5499,37 +5499,37 @@
         <v>1101686236</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D22" s="6">
         <v>3102876566</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F22" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="I22" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J22" s="6" t="s">
         <v>9</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
@@ -5537,37 +5537,37 @@
         <v>63557785</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D23" s="6">
         <v>3185645912</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J23" s="6" t="s">
         <v>9</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L23" s="12" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
@@ -5575,37 +5575,37 @@
         <v>1100894181</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D24" s="6">
         <v>3005765923</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J24" s="6" t="s">
         <v>9</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
@@ -5613,37 +5613,37 @@
         <v>46457774</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D25" s="6">
         <v>3202332188</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J25" s="6" t="s">
         <v>9</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
@@ -5651,37 +5651,37 @@
         <v>1065644811</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D26" s="6">
         <v>3004660558</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J26" s="6" t="s">
         <v>9</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L26" s="9">
         <v>52357836590</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
@@ -5689,37 +5689,37 @@
         <v>37750502</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D27" s="6">
         <v>3003632198</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J27" s="6" t="s">
         <v>9</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
@@ -5727,37 +5727,37 @@
         <v>1098639462</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D28" s="6">
         <v>3209044509</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J28" s="6" t="s">
         <v>9</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M28" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
@@ -5765,37 +5765,37 @@
         <v>91493407</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D29" s="6">
         <v>3162253773</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J29" s="6" t="s">
         <v>9</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
@@ -5803,37 +5803,37 @@
         <v>74081102</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D30" s="6">
         <v>3114630069</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J30" s="6" t="s">
         <v>9</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
@@ -5841,37 +5841,37 @@
         <v>63512053</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D31" s="6">
         <v>3158707945</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J31" s="6" t="s">
         <v>9</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="L31" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
@@ -5879,37 +5879,37 @@
         <v>1098639373</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D32" s="6">
         <v>3004144721</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J32" s="6" t="s">
         <v>9</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="M32" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
@@ -5917,37 +5917,37 @@
         <v>1099552826</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D33" s="6">
         <v>3219922005</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F33" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="I33" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J33" s="6" t="s">
         <v>9</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
@@ -5955,37 +5955,37 @@
         <v>13872207</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D34" s="6">
         <v>3165763599</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J34" s="6" t="s">
         <v>9</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L34" s="9" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M34" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
@@ -5993,37 +5993,37 @@
         <v>63348229</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D35" s="6">
         <v>3102262348</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J35" s="6" t="s">
         <v>9</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L35" s="9">
         <v>68000028081</v>
       </c>
       <c r="M35" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
@@ -6031,37 +6031,37 @@
         <v>1125228826</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D36" s="6">
         <v>3164169493</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F36" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="I36" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J36" s="6" t="s">
         <v>9</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L36" s="9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M36" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
@@ -6069,37 +6069,37 @@
         <v>1005148938</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D37" s="6">
         <v>3166088078</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F37" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I37" s="6" t="s">
         <v>132</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>135</v>
       </c>
       <c r="J37" s="6" t="s">
         <v>9</v>
       </c>
       <c r="K37" s="13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L37" s="12" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="M37" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
@@ -6107,37 +6107,37 @@
         <v>63542893</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D38" s="6">
         <v>3138105797</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J38" s="6" t="s">
         <v>9</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="M38" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
@@ -6145,37 +6145,37 @@
         <v>63510325</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D39" s="6">
         <v>3154269363</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J39" s="6" t="s">
         <v>9</v>
       </c>
       <c r="K39" s="13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L39" s="12" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M39" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
@@ -6183,37 +6183,37 @@
         <v>63542491</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D40" s="6">
         <v>3202152771</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J40" s="6" t="s">
         <v>9</v>
       </c>
       <c r="K40" s="11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="L40" s="11">
         <v>392010843</v>
       </c>
       <c r="M40" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
@@ -6221,37 +6221,37 @@
         <v>1140874058</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D41" s="6">
         <v>3006602943</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F41" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H41" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="G41" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="I41" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J41" s="6" t="s">
         <v>9</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L41" s="9" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M41" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
@@ -6259,37 +6259,37 @@
         <v>1057305014</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D42" s="6">
         <v>3137816328</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J42" s="6" t="s">
         <v>9</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L42" s="9" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="M42" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/static/documentos/reporte_19.xlsx
+++ b/static/documentos/reporte_19.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador.SERVIDOR-HP.002\Desktop\Nueva carpeta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pytho\PycharmProjects\sion\static\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E022103D-0A0A-4AF8-B02B-D762FEB3A19B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REPORTE" sheetId="1" r:id="rId1"/>
@@ -21,10 +22,18 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">REPORTE!$A$1:$P$39</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -779,7 +788,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
     <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
@@ -1866,15 +1875,222 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1893,220 +2109,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2125,61 +2134,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>182851</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>285750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>779342</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>271812</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="516226" y="285750"/>
-          <a:ext cx="1358491" cy="1271937"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2444,7 +2398,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2475,219 +2429,219 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="24" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="105"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="115" t="s">
+      <c r="B1" s="116"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="126" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="116"/>
-      <c r="P1" s="117"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="127"/>
+      <c r="O1" s="127"/>
+      <c r="P1" s="128"/>
     </row>
     <row r="2" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="108"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="118" t="s">
+      <c r="B2" s="119"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="129" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="119"/>
-      <c r="O2" s="119"/>
-      <c r="P2" s="120"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="130"/>
+      <c r="L2" s="130"/>
+      <c r="M2" s="130"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="130"/>
+      <c r="P2" s="131"/>
     </row>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="108"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="110"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="121"/>
     </row>
     <row r="4" spans="2:16" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B4" s="108"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
+      <c r="B4" s="119"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
       <c r="E4" s="29" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="33"/>
-      <c r="G4" s="113" t="s">
+      <c r="G4" s="124" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="113"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="114"/>
-      <c r="L4" s="113" t="s">
+      <c r="H4" s="124"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="125"/>
+      <c r="L4" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="113"/>
-      <c r="N4" s="113"/>
-      <c r="O4" s="121"/>
-      <c r="P4" s="122"/>
+      <c r="M4" s="124"/>
+      <c r="N4" s="124"/>
+      <c r="O4" s="132"/>
+      <c r="P4" s="133"/>
     </row>
     <row r="5" spans="2:16" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B5" s="108"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
+      <c r="B5" s="119"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
       <c r="E5" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="127"/>
-      <c r="G5" s="127"/>
-      <c r="H5" s="127"/>
-      <c r="I5" s="127"/>
-      <c r="J5" s="127"/>
-      <c r="K5" s="127"/>
-      <c r="L5" s="128" t="s">
+      <c r="F5" s="138"/>
+      <c r="G5" s="138"/>
+      <c r="H5" s="138"/>
+      <c r="I5" s="138"/>
+      <c r="J5" s="138"/>
+      <c r="K5" s="138"/>
+      <c r="L5" s="139" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="128"/>
-      <c r="N5" s="128"/>
-      <c r="O5" s="123"/>
-      <c r="P5" s="124"/>
+      <c r="M5" s="139"/>
+      <c r="N5" s="139"/>
+      <c r="O5" s="134"/>
+      <c r="P5" s="135"/>
     </row>
     <row r="6" spans="2:16" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="B6" s="108"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
+      <c r="B6" s="119"/>
+      <c r="C6" s="120"/>
+      <c r="D6" s="120"/>
       <c r="E6" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="123"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="126"/>
-      <c r="J6" s="135" t="s">
+      <c r="F6" s="134"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="107" t="s">
         <v>231</v>
       </c>
-      <c r="K6" s="136"/>
-      <c r="L6" s="136"/>
-      <c r="M6" s="136"/>
-      <c r="N6" s="136"/>
-      <c r="O6" s="136"/>
-      <c r="P6" s="137"/>
+      <c r="K6" s="108"/>
+      <c r="L6" s="108"/>
+      <c r="M6" s="108"/>
+      <c r="N6" s="108"/>
+      <c r="O6" s="108"/>
+      <c r="P6" s="109"/>
     </row>
     <row r="7" spans="2:16" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B7" s="108"/>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
+      <c r="B7" s="119"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="120"/>
       <c r="E7" s="31" t="s">
         <v>236</v>
       </c>
-      <c r="F7" s="123"/>
-      <c r="G7" s="125"/>
-      <c r="H7" s="125"/>
-      <c r="I7" s="126"/>
-      <c r="J7" s="93" t="s">
+      <c r="F7" s="134"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="144" t="s">
         <v>238</v>
       </c>
-      <c r="K7" s="94"/>
-      <c r="L7" s="94"/>
-      <c r="M7" s="94"/>
-      <c r="N7" s="94"/>
-      <c r="O7" s="94"/>
-      <c r="P7" s="95"/>
+      <c r="K7" s="145"/>
+      <c r="L7" s="145"/>
+      <c r="M7" s="145"/>
+      <c r="N7" s="145"/>
+      <c r="O7" s="145"/>
+      <c r="P7" s="146"/>
     </row>
     <row r="8" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="111"/>
-      <c r="C8" s="112"/>
-      <c r="D8" s="112"/>
-      <c r="E8" s="129" t="s">
+      <c r="B8" s="122"/>
+      <c r="C8" s="123"/>
+      <c r="D8" s="123"/>
+      <c r="E8" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="130"/>
+      <c r="F8" s="103"/>
       <c r="G8" s="34"/>
-      <c r="H8" s="131" t="s">
+      <c r="H8" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="132"/>
+      <c r="I8" s="105"/>
       <c r="J8" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="K8" s="133"/>
-      <c r="L8" s="134"/>
-      <c r="M8" s="141" t="s">
+      <c r="K8" s="79"/>
+      <c r="L8" s="106"/>
+      <c r="M8" s="77" t="s">
         <v>240</v>
       </c>
-      <c r="N8" s="142"/>
-      <c r="O8" s="133"/>
-      <c r="P8" s="143"/>
+      <c r="N8" s="78"/>
+      <c r="O8" s="79"/>
+      <c r="P8" s="80"/>
     </row>
     <row r="9" spans="2:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="101" t="s">
+      <c r="B10" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="96" t="s">
+      <c r="C10" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="96" t="s">
+      <c r="D10" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="96" t="s">
+      <c r="E10" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="96"/>
-      <c r="G10" s="96" t="s">
+      <c r="F10" s="110"/>
+      <c r="G10" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="96" t="s">
+      <c r="H10" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="138" t="s">
+      <c r="I10" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="96" t="s">
+      <c r="J10" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="96"/>
-      <c r="L10" s="77" t="s">
+      <c r="K10" s="110"/>
+      <c r="L10" s="147" t="s">
         <v>180</v>
       </c>
-      <c r="M10" s="152" t="s">
+      <c r="M10" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="N10" s="153"/>
-      <c r="O10" s="146" t="s">
+      <c r="N10" s="90"/>
+      <c r="O10" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="P10" s="147"/>
+      <c r="P10" s="84"/>
     </row>
     <row r="11" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="102"/>
-      <c r="C11" s="97"/>
-      <c r="D11" s="97"/>
-      <c r="E11" s="97"/>
-      <c r="F11" s="97"/>
-      <c r="G11" s="97"/>
-      <c r="H11" s="97"/>
-      <c r="I11" s="139"/>
-      <c r="J11" s="97"/>
-      <c r="K11" s="97"/>
-      <c r="L11" s="78"/>
+      <c r="B11" s="141"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="113"/>
+      <c r="J11" s="111"/>
+      <c r="K11" s="111"/>
+      <c r="L11" s="148"/>
       <c r="M11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="N11" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="O11" s="148"/>
-      <c r="P11" s="149"/>
+      <c r="O11" s="85"/>
+      <c r="P11" s="86"/>
     </row>
     <row r="12" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="35">
@@ -2695,18 +2649,18 @@
       </c>
       <c r="C12" s="38"/>
       <c r="D12" s="39"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="103"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="114"/>
       <c r="G12" s="39"/>
       <c r="H12" s="38"/>
       <c r="I12" s="40"/>
-      <c r="J12" s="140"/>
-      <c r="K12" s="140"/>
+      <c r="J12" s="157"/>
+      <c r="K12" s="157"/>
       <c r="L12" s="41"/>
       <c r="M12" s="42"/>
       <c r="N12" s="43"/>
-      <c r="O12" s="150"/>
-      <c r="P12" s="151"/>
+      <c r="O12" s="87"/>
+      <c r="P12" s="88"/>
     </row>
     <row r="13" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="36">
@@ -2714,18 +2668,18 @@
       </c>
       <c r="C13" s="39"/>
       <c r="D13" s="39"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="95"/>
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
       <c r="I13" s="44"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="79"/>
+      <c r="J13" s="96"/>
+      <c r="K13" s="96"/>
       <c r="L13" s="41"/>
       <c r="M13" s="45"/>
       <c r="N13" s="46"/>
-      <c r="O13" s="86"/>
-      <c r="P13" s="87"/>
+      <c r="O13" s="91"/>
+      <c r="P13" s="92"/>
     </row>
     <row r="14" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="36">
@@ -2733,18 +2687,18 @@
       </c>
       <c r="C14" s="39"/>
       <c r="D14" s="39"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
       <c r="G14" s="39"/>
       <c r="H14" s="39"/>
       <c r="I14" s="44"/>
-      <c r="J14" s="79"/>
-      <c r="K14" s="79"/>
+      <c r="J14" s="96"/>
+      <c r="K14" s="96"/>
       <c r="L14" s="41"/>
       <c r="M14" s="45"/>
       <c r="N14" s="46"/>
-      <c r="O14" s="86"/>
-      <c r="P14" s="87"/>
+      <c r="O14" s="91"/>
+      <c r="P14" s="92"/>
     </row>
     <row r="15" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="36">
@@ -2752,18 +2706,18 @@
       </c>
       <c r="C15" s="39"/>
       <c r="D15" s="39"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
       <c r="G15" s="39"/>
       <c r="H15" s="39"/>
       <c r="I15" s="44"/>
-      <c r="J15" s="79"/>
-      <c r="K15" s="79"/>
+      <c r="J15" s="96"/>
+      <c r="K15" s="96"/>
       <c r="L15" s="41"/>
       <c r="M15" s="45"/>
       <c r="N15" s="46"/>
-      <c r="O15" s="86"/>
-      <c r="P15" s="87"/>
+      <c r="O15" s="91"/>
+      <c r="P15" s="92"/>
     </row>
     <row r="16" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="36">
@@ -2771,18 +2725,18 @@
       </c>
       <c r="C16" s="39"/>
       <c r="D16" s="39"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
       <c r="G16" s="39"/>
       <c r="H16" s="39"/>
       <c r="I16" s="44"/>
-      <c r="J16" s="79"/>
-      <c r="K16" s="79"/>
+      <c r="J16" s="96"/>
+      <c r="K16" s="96"/>
       <c r="L16" s="41"/>
       <c r="M16" s="45"/>
       <c r="N16" s="46"/>
-      <c r="O16" s="86"/>
-      <c r="P16" s="87"/>
+      <c r="O16" s="91"/>
+      <c r="P16" s="92"/>
     </row>
     <row r="17" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="36">
@@ -2790,18 +2744,18 @@
       </c>
       <c r="C17" s="39"/>
       <c r="D17" s="39"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
       <c r="G17" s="39"/>
       <c r="H17" s="39"/>
       <c r="I17" s="44"/>
-      <c r="J17" s="79"/>
-      <c r="K17" s="79"/>
+      <c r="J17" s="96"/>
+      <c r="K17" s="96"/>
       <c r="L17" s="41"/>
       <c r="M17" s="45"/>
       <c r="N17" s="46"/>
-      <c r="O17" s="86"/>
-      <c r="P17" s="87"/>
+      <c r="O17" s="91"/>
+      <c r="P17" s="92"/>
     </row>
     <row r="18" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="36">
@@ -2809,18 +2763,18 @@
       </c>
       <c r="C18" s="39"/>
       <c r="D18" s="39"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="95"/>
       <c r="G18" s="39"/>
       <c r="H18" s="39"/>
       <c r="I18" s="44"/>
-      <c r="J18" s="79"/>
-      <c r="K18" s="79"/>
+      <c r="J18" s="96"/>
+      <c r="K18" s="96"/>
       <c r="L18" s="41"/>
       <c r="M18" s="45"/>
       <c r="N18" s="46"/>
-      <c r="O18" s="86"/>
-      <c r="P18" s="87"/>
+      <c r="O18" s="91"/>
+      <c r="P18" s="92"/>
     </row>
     <row r="19" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="36">
@@ -2828,18 +2782,18 @@
       </c>
       <c r="C19" s="39"/>
       <c r="D19" s="39"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="90"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="95"/>
       <c r="G19" s="39"/>
       <c r="H19" s="39"/>
       <c r="I19" s="44"/>
-      <c r="J19" s="79"/>
-      <c r="K19" s="79"/>
+      <c r="J19" s="96"/>
+      <c r="K19" s="96"/>
       <c r="L19" s="41"/>
       <c r="M19" s="45"/>
       <c r="N19" s="46"/>
-      <c r="O19" s="86"/>
-      <c r="P19" s="87"/>
+      <c r="O19" s="91"/>
+      <c r="P19" s="92"/>
     </row>
     <row r="20" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="36">
@@ -2847,18 +2801,18 @@
       </c>
       <c r="C20" s="39"/>
       <c r="D20" s="39"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="95"/>
       <c r="G20" s="39"/>
       <c r="H20" s="39"/>
       <c r="I20" s="44"/>
-      <c r="J20" s="79"/>
-      <c r="K20" s="79"/>
+      <c r="J20" s="96"/>
+      <c r="K20" s="96"/>
       <c r="L20" s="41"/>
       <c r="M20" s="45"/>
       <c r="N20" s="46"/>
-      <c r="O20" s="86"/>
-      <c r="P20" s="87"/>
+      <c r="O20" s="91"/>
+      <c r="P20" s="92"/>
     </row>
     <row r="21" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="36">
@@ -2866,18 +2820,18 @@
       </c>
       <c r="C21" s="39"/>
       <c r="D21" s="39"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
       <c r="G21" s="39"/>
       <c r="H21" s="39"/>
       <c r="I21" s="44"/>
-      <c r="J21" s="79"/>
-      <c r="K21" s="79"/>
+      <c r="J21" s="96"/>
+      <c r="K21" s="96"/>
       <c r="L21" s="41"/>
       <c r="M21" s="45"/>
       <c r="N21" s="46"/>
-      <c r="O21" s="86"/>
-      <c r="P21" s="87"/>
+      <c r="O21" s="91"/>
+      <c r="P21" s="92"/>
     </row>
     <row r="22" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="36">
@@ -2885,18 +2839,18 @@
       </c>
       <c r="C22" s="39"/>
       <c r="D22" s="39"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="95"/>
       <c r="G22" s="39"/>
       <c r="H22" s="39"/>
       <c r="I22" s="44"/>
-      <c r="J22" s="79"/>
-      <c r="K22" s="79"/>
+      <c r="J22" s="96"/>
+      <c r="K22" s="96"/>
       <c r="L22" s="41"/>
       <c r="M22" s="45"/>
       <c r="N22" s="46"/>
-      <c r="O22" s="86"/>
-      <c r="P22" s="87"/>
+      <c r="O22" s="91"/>
+      <c r="P22" s="92"/>
     </row>
     <row r="23" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="36">
@@ -2904,18 +2858,18 @@
       </c>
       <c r="C23" s="39"/>
       <c r="D23" s="39"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="95"/>
       <c r="G23" s="39"/>
       <c r="H23" s="39"/>
       <c r="I23" s="44"/>
-      <c r="J23" s="79"/>
-      <c r="K23" s="79"/>
+      <c r="J23" s="96"/>
+      <c r="K23" s="96"/>
       <c r="L23" s="41"/>
       <c r="M23" s="45"/>
       <c r="N23" s="46"/>
-      <c r="O23" s="86"/>
-      <c r="P23" s="87"/>
+      <c r="O23" s="91"/>
+      <c r="P23" s="92"/>
     </row>
     <row r="24" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="36">
@@ -2923,18 +2877,18 @@
       </c>
       <c r="C24" s="39"/>
       <c r="D24" s="39"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="90"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="95"/>
       <c r="G24" s="39"/>
       <c r="H24" s="39"/>
       <c r="I24" s="44"/>
-      <c r="J24" s="79"/>
-      <c r="K24" s="79"/>
+      <c r="J24" s="96"/>
+      <c r="K24" s="96"/>
       <c r="L24" s="41"/>
       <c r="M24" s="45"/>
       <c r="N24" s="46"/>
-      <c r="O24" s="86"/>
-      <c r="P24" s="87"/>
+      <c r="O24" s="91"/>
+      <c r="P24" s="92"/>
     </row>
     <row r="25" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="36">
@@ -2942,18 +2896,18 @@
       </c>
       <c r="C25" s="39"/>
       <c r="D25" s="39"/>
-      <c r="E25" s="90"/>
-      <c r="F25" s="90"/>
+      <c r="E25" s="95"/>
+      <c r="F25" s="95"/>
       <c r="G25" s="39"/>
       <c r="H25" s="39"/>
       <c r="I25" s="44"/>
-      <c r="J25" s="79"/>
-      <c r="K25" s="79"/>
+      <c r="J25" s="96"/>
+      <c r="K25" s="96"/>
       <c r="L25" s="41"/>
       <c r="M25" s="45"/>
       <c r="N25" s="46"/>
-      <c r="O25" s="86"/>
-      <c r="P25" s="87"/>
+      <c r="O25" s="91"/>
+      <c r="P25" s="92"/>
     </row>
     <row r="26" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="36">
@@ -2961,18 +2915,18 @@
       </c>
       <c r="C26" s="39"/>
       <c r="D26" s="39"/>
-      <c r="E26" s="90"/>
-      <c r="F26" s="90"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="95"/>
       <c r="G26" s="39"/>
       <c r="H26" s="39"/>
       <c r="I26" s="44"/>
-      <c r="J26" s="79"/>
-      <c r="K26" s="79"/>
+      <c r="J26" s="96"/>
+      <c r="K26" s="96"/>
       <c r="L26" s="41"/>
       <c r="M26" s="45"/>
       <c r="N26" s="46"/>
-      <c r="O26" s="86"/>
-      <c r="P26" s="87"/>
+      <c r="O26" s="91"/>
+      <c r="P26" s="92"/>
     </row>
     <row r="27" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="36">
@@ -2980,18 +2934,18 @@
       </c>
       <c r="C27" s="39"/>
       <c r="D27" s="39"/>
-      <c r="E27" s="90"/>
-      <c r="F27" s="90"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="95"/>
       <c r="G27" s="39"/>
       <c r="H27" s="39"/>
       <c r="I27" s="44"/>
-      <c r="J27" s="79"/>
-      <c r="K27" s="79"/>
+      <c r="J27" s="96"/>
+      <c r="K27" s="96"/>
       <c r="L27" s="47"/>
       <c r="M27" s="45"/>
       <c r="N27" s="46"/>
-      <c r="O27" s="86"/>
-      <c r="P27" s="87"/>
+      <c r="O27" s="91"/>
+      <c r="P27" s="92"/>
     </row>
     <row r="28" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="36">
@@ -2999,18 +2953,18 @@
       </c>
       <c r="C28" s="39"/>
       <c r="D28" s="39"/>
-      <c r="E28" s="90"/>
-      <c r="F28" s="90"/>
+      <c r="E28" s="95"/>
+      <c r="F28" s="95"/>
       <c r="G28" s="39"/>
       <c r="H28" s="39"/>
       <c r="I28" s="44"/>
-      <c r="J28" s="79"/>
-      <c r="K28" s="79"/>
+      <c r="J28" s="96"/>
+      <c r="K28" s="96"/>
       <c r="L28" s="47"/>
       <c r="M28" s="45"/>
       <c r="N28" s="46"/>
-      <c r="O28" s="86"/>
-      <c r="P28" s="87"/>
+      <c r="O28" s="91"/>
+      <c r="P28" s="92"/>
     </row>
     <row r="29" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="36">
@@ -3018,18 +2972,18 @@
       </c>
       <c r="C29" s="39"/>
       <c r="D29" s="39"/>
-      <c r="E29" s="90"/>
-      <c r="F29" s="90"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="95"/>
       <c r="G29" s="39"/>
       <c r="H29" s="39"/>
       <c r="I29" s="44"/>
-      <c r="J29" s="79"/>
-      <c r="K29" s="79"/>
+      <c r="J29" s="96"/>
+      <c r="K29" s="96"/>
       <c r="L29" s="47"/>
       <c r="M29" s="48"/>
       <c r="N29" s="49"/>
-      <c r="O29" s="86"/>
-      <c r="P29" s="87"/>
+      <c r="O29" s="91"/>
+      <c r="P29" s="92"/>
     </row>
     <row r="30" spans="2:16" ht="129.94999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="37">
@@ -3037,26 +2991,26 @@
       </c>
       <c r="C30" s="53"/>
       <c r="D30" s="53"/>
-      <c r="E30" s="91"/>
-      <c r="F30" s="91"/>
+      <c r="E30" s="142"/>
+      <c r="F30" s="142"/>
       <c r="G30" s="53"/>
       <c r="H30" s="53"/>
       <c r="I30" s="54"/>
-      <c r="J30" s="92"/>
-      <c r="K30" s="92"/>
+      <c r="J30" s="143"/>
+      <c r="K30" s="143"/>
       <c r="L30" s="50"/>
       <c r="M30" s="51"/>
       <c r="N30" s="52"/>
-      <c r="O30" s="156"/>
-      <c r="P30" s="157"/>
+      <c r="O30" s="93"/>
+      <c r="P30" s="94"/>
     </row>
     <row r="31" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H31" s="154" t="s">
+      <c r="H31" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="I31" s="155"/>
-      <c r="J31" s="155"/>
-      <c r="K31" s="155"/>
+      <c r="I31" s="101"/>
+      <c r="J31" s="101"/>
+      <c r="K31" s="101"/>
       <c r="L31" s="26">
         <f>SUM(L12:L30)</f>
         <v>0</v>
@@ -3070,13 +3024,13 @@
       <c r="L32" s="4"/>
     </row>
     <row r="33" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="104" t="s">
+      <c r="B33" s="115" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="104"/>
-      <c r="D33" s="104"/>
-      <c r="E33" s="104"/>
-      <c r="F33" s="104"/>
+      <c r="C33" s="115"/>
+      <c r="D33" s="115"/>
+      <c r="E33" s="115"/>
+      <c r="F33" s="115"/>
       <c r="H33" s="28"/>
       <c r="I33" s="28"/>
       <c r="J33" s="28"/>
@@ -3101,12 +3055,12 @@
       <c r="J34" s="60"/>
       <c r="K34" s="60"/>
       <c r="L34" s="61"/>
-      <c r="M34" s="82" t="s">
+      <c r="M34" s="151" t="s">
         <v>230</v>
       </c>
-      <c r="N34" s="83"/>
-      <c r="O34" s="83"/>
-      <c r="P34" s="144" t="s">
+      <c r="N34" s="152"/>
+      <c r="O34" s="152"/>
+      <c r="P34" s="81" t="s">
         <v>235</v>
       </c>
     </row>
@@ -3122,10 +3076,10 @@
       <c r="J35" s="67"/>
       <c r="K35" s="67"/>
       <c r="L35" s="68"/>
-      <c r="M35" s="84"/>
-      <c r="N35" s="85"/>
-      <c r="O35" s="85"/>
-      <c r="P35" s="145"/>
+      <c r="M35" s="153"/>
+      <c r="N35" s="154"/>
+      <c r="O35" s="154"/>
+      <c r="P35" s="82"/>
     </row>
     <row r="36" spans="2:16" ht="21" x14ac:dyDescent="0.35">
       <c r="B36" s="62"/>
@@ -3139,10 +3093,10 @@
       <c r="J36" s="67"/>
       <c r="K36" s="67"/>
       <c r="L36" s="68"/>
-      <c r="M36" s="84"/>
-      <c r="N36" s="85"/>
-      <c r="O36" s="85"/>
-      <c r="P36" s="145"/>
+      <c r="M36" s="153"/>
+      <c r="N36" s="154"/>
+      <c r="O36" s="154"/>
+      <c r="P36" s="82"/>
     </row>
     <row r="37" spans="2:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="62"/>
@@ -3156,37 +3110,37 @@
       <c r="J37" s="67"/>
       <c r="K37" s="67"/>
       <c r="L37" s="68"/>
-      <c r="M37" s="84" t="s">
+      <c r="M37" s="153" t="s">
         <v>233</v>
       </c>
-      <c r="N37" s="85"/>
-      <c r="O37" s="85"/>
-      <c r="P37" s="80" t="s">
+      <c r="N37" s="154"/>
+      <c r="O37" s="154"/>
+      <c r="P37" s="149" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="38" spans="2:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="B38" s="98" t="s">
+      <c r="B38" s="97" t="s">
         <v>234</v>
       </c>
-      <c r="C38" s="99"/>
-      <c r="D38" s="99"/>
-      <c r="E38" s="100"/>
-      <c r="F38" s="98" t="s">
+      <c r="C38" s="98"/>
+      <c r="D38" s="98"/>
+      <c r="E38" s="99"/>
+      <c r="F38" s="97" t="s">
         <v>234</v>
       </c>
-      <c r="G38" s="99"/>
-      <c r="H38" s="99"/>
-      <c r="I38" s="98" t="s">
+      <c r="G38" s="98"/>
+      <c r="H38" s="98"/>
+      <c r="I38" s="97" t="s">
         <v>237</v>
       </c>
-      <c r="J38" s="99"/>
-      <c r="K38" s="99"/>
-      <c r="L38" s="100"/>
-      <c r="M38" s="84"/>
-      <c r="N38" s="85"/>
-      <c r="O38" s="85"/>
-      <c r="P38" s="80"/>
+      <c r="J38" s="98"/>
+      <c r="K38" s="98"/>
+      <c r="L38" s="99"/>
+      <c r="M38" s="153"/>
+      <c r="N38" s="154"/>
+      <c r="O38" s="154"/>
+      <c r="P38" s="149"/>
     </row>
     <row r="39" spans="2:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B39" s="71"/>
@@ -3200,10 +3154,10 @@
       <c r="J39" s="75"/>
       <c r="K39" s="75"/>
       <c r="L39" s="76"/>
-      <c r="M39" s="88"/>
-      <c r="N39" s="89"/>
-      <c r="O39" s="89"/>
-      <c r="P39" s="81"/>
+      <c r="M39" s="155"/>
+      <c r="N39" s="156"/>
+      <c r="O39" s="156"/>
+      <c r="P39" s="150"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" selectUnlockedCells="1"/>
@@ -3214,24 +3168,58 @@
     <protectedRange sqref="J7:O7" name="Rango1_1"/>
   </protectedRanges>
   <mergeCells count="96">
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="P34:P36"/>
-    <mergeCell ref="O10:P11"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="P37:P39"/>
+    <mergeCell ref="M34:O36"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="M37:O39"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="J10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="B1:D8"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="E1:P1"/>
+    <mergeCell ref="E2:P2"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="F6:I6"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="K8:L8"/>
@@ -3248,85 +3236,50 @@
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="J15:K15"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="B1:D8"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="E1:P1"/>
-    <mergeCell ref="E2:P2"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="H31:K31"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:F11"/>
-    <mergeCell ref="G10:G11"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="J27:K27"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="J28:K28"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="J10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="P37:P39"/>
-    <mergeCell ref="M34:O36"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="M37:O39"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="P34:P36"/>
+    <mergeCell ref="O10:P11"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="O14:P14"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:K4">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:K4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"F-GAF-17"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.39370078740157483" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="36" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3992,7 +3945,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:H21"/>
   <sheetViews>
@@ -4324,7 +4277,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:C30"/>
   <sheetViews>
@@ -4675,7 +4628,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Hoja6"/>
   <dimension ref="B1:M42"/>
   <sheetViews>
